--- a/para/Tra/trafoDAB.xlsx
+++ b/para/Tra/trafoDAB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f215465b21b5e6e2/Studium/34_Github/PyPowerSim/para/Tra/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1977" documentId="11_AD4DB114E441178AC67DF439BED5CE16693EDF27" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C0C07B9-D7DF-4723-9C38-C0323CE276A4}"/>
+  <xr:revisionPtr revIDLastSave="1985" documentId="11_AD4DB114E441178AC67DF439BED5CE16693EDF27" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A809740-7752-4336-B136-CC4B4EDBC32F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="30912" windowHeight="16752" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
@@ -1373,6 +1373,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1380,15 +1389,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13395,70 +13395,70 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>9.9997500041748566E-5</c:v>
+                  <c:v>9.9996666740820306E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.999900003333277E-4</c:v>
+                  <c:v>1.999866672592332E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9993750520793689E-4</c:v>
+                  <c:v>4.9991667592513833E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.9975004166141801E-4</c:v>
+                  <c:v>9.9966674072837769E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9990003332499562E-3</c:v>
+                  <c:v>1.9986672590618371E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.9937552050798306E-3</c:v>
+                  <c:v>4.9916759182150883E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.9750416146353604E-3</c:v>
+                  <c:v>9.9667406174483442E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.9900332501663787E-2</c:v>
+                  <c:v>1.9867257289206464E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.938017594333477E-2</c:v>
+                  <c:v>4.9175849276991146E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.7541150998571968E-2</c:v>
+                  <c:v>9.6739522452573334E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.19032516392808096</c:v>
+                  <c:v>0.18724002143557877</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.44239843385719024</c:v>
+                  <c:v>0.42520303413931609</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.78693868057473315</c:v>
+                  <c:v>0.72987432145111197</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2642411176571153</c:v>
+                  <c:v>1.1046042928264099</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.8358300027522023</c:v>
+                  <c:v>1.4464890099791214</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.986524106001829</c:v>
+                  <c:v>1.4980910492979902</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.999909200140475</c:v>
+                  <c:v>1.4999975706048114</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.9999999999722242</c:v>
+                  <c:v>1.4999999999999951</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13578,70 +13578,70 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>7.9999919999629299E-6</c:v>
+                  <c:v>3.9999959999814649E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5999967999835718E-5</c:v>
+                  <c:v>7.999983999917859E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9999800000689589E-5</c:v>
+                  <c:v>1.9999900000344795E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.9999200005342885E-5</c:v>
+                  <c:v>3.9999600002671443E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5999680004252781E-4</c:v>
+                  <c:v>7.9998400021263905E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.999800006666554E-4</c:v>
+                  <c:v>1.999900003333277E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.9992000533302132E-4</c:v>
+                  <c:v>3.9996000266651066E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5996800426623103E-3</c:v>
+                  <c:v>7.9984002133115517E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.9980006664999124E-3</c:v>
+                  <c:v>1.9990003332499562E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.9920053306676841E-3</c:v>
+                  <c:v>3.9960026653338421E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.5968042624034062E-2</c:v>
+                  <c:v>7.9840213120170311E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.9800665003327573E-2</c:v>
+                  <c:v>1.9900332501663787E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.9205306772978989E-2</c:v>
+                  <c:v>3.9602653386489495E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.15684224339070729</c:v>
+                  <c:v>7.8421121695353646E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.38065032785616193</c:v>
+                  <c:v>0.19032516392808096</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.72507698768807272</c:v>
+                  <c:v>0.36253849384403636</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.3187198158574427</c:v>
+                  <c:v>0.65935990792872134</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.5284822353142307</c:v>
+                  <c:v>1.2642411176571153</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.4586588670535492</c:v>
+                  <c:v>1.7293294335267746</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.9267374444450631</c:v>
+                  <c:v>1.9633687222225316</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.99981840028095</c:v>
+                  <c:v>1.999909200140475</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.9999999917553857</c:v>
+                  <c:v>1.9999999958776928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19926,10 +19926,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -20415,7 +20411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DCB0370-656A-4BCA-B950-AA707D31C9FC}">
   <dimension ref="A1:AA184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
@@ -21205,36 +21201,36 @@
     </row>
     <row r="31" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="79" t="s">
+      <c r="A32" s="82" t="s">
         <v>132</v>
       </c>
-      <c r="B32" s="80"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="80"/>
-      <c r="H32" s="80"/>
-      <c r="I32" s="80"/>
-      <c r="J32" s="80"/>
-      <c r="K32" s="81"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="83"/>
+      <c r="I32" s="83"/>
+      <c r="J32" s="83"/>
+      <c r="K32" s="84"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="B33" s="82" t="s">
+      <c r="B33" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="83"/>
-      <c r="D33" s="83"/>
-      <c r="E33" s="83"/>
-      <c r="F33" s="83"/>
-      <c r="G33" s="83"/>
-      <c r="H33" s="83"/>
-      <c r="I33" s="83"/>
-      <c r="J33" s="83"/>
-      <c r="K33" s="84"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="80"/>
+      <c r="H33" s="80"/>
+      <c r="I33" s="80"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="81"/>
     </row>
     <row r="34" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="86"/>
@@ -21466,36 +21462,36 @@
     </row>
     <row r="51" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="79" t="s">
+      <c r="A52" s="82" t="s">
         <v>133</v>
       </c>
-      <c r="B52" s="80"/>
-      <c r="C52" s="80"/>
-      <c r="D52" s="80"/>
-      <c r="E52" s="80"/>
-      <c r="F52" s="80"/>
-      <c r="G52" s="80"/>
-      <c r="H52" s="80"/>
-      <c r="I52" s="80"/>
-      <c r="J52" s="80"/>
-      <c r="K52" s="81"/>
+      <c r="B52" s="83"/>
+      <c r="C52" s="83"/>
+      <c r="D52" s="83"/>
+      <c r="E52" s="83"/>
+      <c r="F52" s="83"/>
+      <c r="G52" s="83"/>
+      <c r="H52" s="83"/>
+      <c r="I52" s="83"/>
+      <c r="J52" s="83"/>
+      <c r="K52" s="84"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="B53" s="82" t="s">
+      <c r="B53" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C53" s="83"/>
-      <c r="D53" s="83"/>
-      <c r="E53" s="83"/>
-      <c r="F53" s="83"/>
-      <c r="G53" s="83"/>
-      <c r="H53" s="83"/>
-      <c r="I53" s="83"/>
-      <c r="J53" s="83"/>
-      <c r="K53" s="84"/>
+      <c r="C53" s="80"/>
+      <c r="D53" s="80"/>
+      <c r="E53" s="80"/>
+      <c r="F53" s="80"/>
+      <c r="G53" s="80"/>
+      <c r="H53" s="80"/>
+      <c r="I53" s="80"/>
+      <c r="J53" s="80"/>
+      <c r="K53" s="81"/>
     </row>
     <row r="54" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="86"/>
@@ -21727,36 +21723,36 @@
     </row>
     <row r="71" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="79" t="s">
+      <c r="A72" s="82" t="s">
         <v>138</v>
       </c>
-      <c r="B72" s="80"/>
-      <c r="C72" s="80"/>
-      <c r="D72" s="80"/>
-      <c r="E72" s="80"/>
-      <c r="F72" s="80"/>
-      <c r="G72" s="80"/>
-      <c r="H72" s="80"/>
-      <c r="I72" s="80"/>
-      <c r="J72" s="80"/>
-      <c r="K72" s="81"/>
+      <c r="B72" s="83"/>
+      <c r="C72" s="83"/>
+      <c r="D72" s="83"/>
+      <c r="E72" s="83"/>
+      <c r="F72" s="83"/>
+      <c r="G72" s="83"/>
+      <c r="H72" s="83"/>
+      <c r="I72" s="83"/>
+      <c r="J72" s="83"/>
+      <c r="K72" s="84"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="85" t="s">
         <v>139</v>
       </c>
-      <c r="B73" s="82" t="s">
+      <c r="B73" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C73" s="83"/>
-      <c r="D73" s="83"/>
-      <c r="E73" s="83"/>
-      <c r="F73" s="83"/>
-      <c r="G73" s="83"/>
-      <c r="H73" s="83"/>
-      <c r="I73" s="83"/>
-      <c r="J73" s="83"/>
-      <c r="K73" s="84"/>
+      <c r="C73" s="80"/>
+      <c r="D73" s="80"/>
+      <c r="E73" s="80"/>
+      <c r="F73" s="80"/>
+      <c r="G73" s="80"/>
+      <c r="H73" s="80"/>
+      <c r="I73" s="80"/>
+      <c r="J73" s="80"/>
+      <c r="K73" s="81"/>
     </row>
     <row r="74" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="86"/>
@@ -21983,36 +21979,36 @@
     </row>
     <row r="91" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="79" t="s">
+      <c r="A92" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="B92" s="80"/>
-      <c r="C92" s="80"/>
-      <c r="D92" s="80"/>
-      <c r="E92" s="80"/>
-      <c r="F92" s="80"/>
-      <c r="G92" s="80"/>
-      <c r="H92" s="80"/>
-      <c r="I92" s="80"/>
-      <c r="J92" s="80"/>
-      <c r="K92" s="81"/>
+      <c r="B92" s="83"/>
+      <c r="C92" s="83"/>
+      <c r="D92" s="83"/>
+      <c r="E92" s="83"/>
+      <c r="F92" s="83"/>
+      <c r="G92" s="83"/>
+      <c r="H92" s="83"/>
+      <c r="I92" s="83"/>
+      <c r="J92" s="83"/>
+      <c r="K92" s="84"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="85" t="s">
         <v>139</v>
       </c>
-      <c r="B93" s="82" t="s">
+      <c r="B93" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C93" s="83"/>
-      <c r="D93" s="83"/>
-      <c r="E93" s="83"/>
-      <c r="F93" s="83"/>
-      <c r="G93" s="83"/>
-      <c r="H93" s="83"/>
-      <c r="I93" s="83"/>
-      <c r="J93" s="83"/>
-      <c r="K93" s="84"/>
+      <c r="C93" s="80"/>
+      <c r="D93" s="80"/>
+      <c r="E93" s="80"/>
+      <c r="F93" s="80"/>
+      <c r="G93" s="80"/>
+      <c r="H93" s="80"/>
+      <c r="I93" s="80"/>
+      <c r="J93" s="80"/>
+      <c r="K93" s="81"/>
     </row>
     <row r="94" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="86"/>
@@ -22239,37 +22235,37 @@
     </row>
     <row r="111" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A112" s="79" t="s">
+      <c r="A112" s="82" t="s">
         <v>142</v>
       </c>
-      <c r="B112" s="80"/>
-      <c r="C112" s="80"/>
-      <c r="D112" s="80"/>
-      <c r="E112" s="80"/>
-      <c r="F112" s="80"/>
-      <c r="G112" s="80"/>
-      <c r="H112" s="80"/>
-      <c r="I112" s="80"/>
-      <c r="J112" s="80"/>
-      <c r="K112" s="81"/>
+      <c r="B112" s="83"/>
+      <c r="C112" s="83"/>
+      <c r="D112" s="83"/>
+      <c r="E112" s="83"/>
+      <c r="F112" s="83"/>
+      <c r="G112" s="83"/>
+      <c r="H112" s="83"/>
+      <c r="I112" s="83"/>
+      <c r="J112" s="83"/>
+      <c r="K112" s="84"/>
       <c r="L112" s="2"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="85" t="s">
         <v>141</v>
       </c>
-      <c r="B113" s="82" t="s">
+      <c r="B113" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C113" s="83"/>
-      <c r="D113" s="83"/>
-      <c r="E113" s="83"/>
-      <c r="F113" s="83"/>
-      <c r="G113" s="83"/>
-      <c r="H113" s="83"/>
-      <c r="I113" s="83"/>
-      <c r="J113" s="83"/>
-      <c r="K113" s="84"/>
+      <c r="C113" s="80"/>
+      <c r="D113" s="80"/>
+      <c r="E113" s="80"/>
+      <c r="F113" s="80"/>
+      <c r="G113" s="80"/>
+      <c r="H113" s="80"/>
+      <c r="I113" s="80"/>
+      <c r="J113" s="80"/>
+      <c r="K113" s="81"/>
       <c r="L113" s="1"/>
     </row>
     <row r="114" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -22508,36 +22504,36 @@
     </row>
     <row r="131" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A132" s="79" t="s">
+      <c r="A132" s="82" t="s">
         <v>143</v>
       </c>
-      <c r="B132" s="80"/>
-      <c r="C132" s="80"/>
-      <c r="D132" s="80"/>
-      <c r="E132" s="80"/>
-      <c r="F132" s="80"/>
-      <c r="G132" s="80"/>
-      <c r="H132" s="80"/>
-      <c r="I132" s="80"/>
-      <c r="J132" s="80"/>
-      <c r="K132" s="81"/>
+      <c r="B132" s="83"/>
+      <c r="C132" s="83"/>
+      <c r="D132" s="83"/>
+      <c r="E132" s="83"/>
+      <c r="F132" s="83"/>
+      <c r="G132" s="83"/>
+      <c r="H132" s="83"/>
+      <c r="I132" s="83"/>
+      <c r="J132" s="83"/>
+      <c r="K132" s="84"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="B133" s="82" t="s">
+      <c r="B133" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C133" s="83"/>
-      <c r="D133" s="83"/>
-      <c r="E133" s="83"/>
-      <c r="F133" s="83"/>
-      <c r="G133" s="83"/>
-      <c r="H133" s="83"/>
-      <c r="I133" s="83"/>
-      <c r="J133" s="83"/>
-      <c r="K133" s="84"/>
+      <c r="C133" s="80"/>
+      <c r="D133" s="80"/>
+      <c r="E133" s="80"/>
+      <c r="F133" s="80"/>
+      <c r="G133" s="80"/>
+      <c r="H133" s="80"/>
+      <c r="I133" s="80"/>
+      <c r="J133" s="80"/>
+      <c r="K133" s="81"/>
     </row>
     <row r="134" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="86"/>
@@ -22744,36 +22740,36 @@
     </row>
     <row r="151" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A152" s="79" t="s">
+      <c r="A152" s="82" t="s">
         <v>144</v>
       </c>
-      <c r="B152" s="80"/>
-      <c r="C152" s="80"/>
-      <c r="D152" s="80"/>
-      <c r="E152" s="80"/>
-      <c r="F152" s="80"/>
-      <c r="G152" s="80"/>
-      <c r="H152" s="80"/>
-      <c r="I152" s="80"/>
-      <c r="J152" s="80"/>
-      <c r="K152" s="81"/>
+      <c r="B152" s="83"/>
+      <c r="C152" s="83"/>
+      <c r="D152" s="83"/>
+      <c r="E152" s="83"/>
+      <c r="F152" s="83"/>
+      <c r="G152" s="83"/>
+      <c r="H152" s="83"/>
+      <c r="I152" s="83"/>
+      <c r="J152" s="83"/>
+      <c r="K152" s="84"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="B153" s="82" t="s">
+      <c r="B153" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C153" s="83"/>
-      <c r="D153" s="83"/>
-      <c r="E153" s="83"/>
-      <c r="F153" s="83"/>
-      <c r="G153" s="83"/>
-      <c r="H153" s="83"/>
-      <c r="I153" s="83"/>
-      <c r="J153" s="83"/>
-      <c r="K153" s="84"/>
+      <c r="C153" s="80"/>
+      <c r="D153" s="80"/>
+      <c r="E153" s="80"/>
+      <c r="F153" s="80"/>
+      <c r="G153" s="80"/>
+      <c r="H153" s="80"/>
+      <c r="I153" s="80"/>
+      <c r="J153" s="80"/>
+      <c r="K153" s="81"/>
     </row>
     <row r="154" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="86"/>
@@ -22980,36 +22976,36 @@
     </row>
     <row r="171" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="172" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A172" s="79" t="s">
+      <c r="A172" s="82" t="s">
         <v>145</v>
       </c>
-      <c r="B172" s="80"/>
-      <c r="C172" s="80"/>
-      <c r="D172" s="80"/>
-      <c r="E172" s="80"/>
-      <c r="F172" s="80"/>
-      <c r="G172" s="80"/>
-      <c r="H172" s="80"/>
-      <c r="I172" s="80"/>
-      <c r="J172" s="80"/>
-      <c r="K172" s="81"/>
+      <c r="B172" s="83"/>
+      <c r="C172" s="83"/>
+      <c r="D172" s="83"/>
+      <c r="E172" s="83"/>
+      <c r="F172" s="83"/>
+      <c r="G172" s="83"/>
+      <c r="H172" s="83"/>
+      <c r="I172" s="83"/>
+      <c r="J172" s="83"/>
+      <c r="K172" s="84"/>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="B173" s="82" t="s">
+      <c r="B173" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C173" s="83"/>
-      <c r="D173" s="83"/>
-      <c r="E173" s="83"/>
-      <c r="F173" s="83"/>
-      <c r="G173" s="83"/>
-      <c r="H173" s="83"/>
-      <c r="I173" s="83"/>
-      <c r="J173" s="83"/>
-      <c r="K173" s="84"/>
+      <c r="C173" s="80"/>
+      <c r="D173" s="80"/>
+      <c r="E173" s="80"/>
+      <c r="F173" s="80"/>
+      <c r="G173" s="80"/>
+      <c r="H173" s="80"/>
+      <c r="I173" s="80"/>
+      <c r="J173" s="80"/>
+      <c r="K173" s="81"/>
     </row>
     <row r="174" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="86"/>
@@ -23216,21 +23212,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B73:K73"/>
-    <mergeCell ref="A92:K92"/>
-    <mergeCell ref="B93:K93"/>
-    <mergeCell ref="A112:K112"/>
-    <mergeCell ref="B113:K113"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="A32:K32"/>
-    <mergeCell ref="B33:K33"/>
-    <mergeCell ref="A52:K52"/>
-    <mergeCell ref="B53:K53"/>
-    <mergeCell ref="A72:K72"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A53:A54"/>
     <mergeCell ref="A152:K152"/>
     <mergeCell ref="B153:K153"/>
     <mergeCell ref="A172:K172"/>
@@ -23240,6 +23221,21 @@
     <mergeCell ref="A133:A134"/>
     <mergeCell ref="A153:A154"/>
     <mergeCell ref="A173:A174"/>
+    <mergeCell ref="A32:K32"/>
+    <mergeCell ref="B33:K33"/>
+    <mergeCell ref="A52:K52"/>
+    <mergeCell ref="B53:K53"/>
+    <mergeCell ref="A72:K72"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B73:K73"/>
+    <mergeCell ref="A92:K92"/>
+    <mergeCell ref="B93:K93"/>
+    <mergeCell ref="A112:K112"/>
+    <mergeCell ref="B113:K113"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="A113:A114"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -23251,8 +23247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF10A5AF-6534-4D65-85BA-4292797F34F0}">
   <dimension ref="A1:P202"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23389,10 +23385,10 @@
         <v>160</v>
       </c>
       <c r="E4" s="66">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F4" s="56">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="G4" s="33"/>
       <c r="H4" s="33"/>
@@ -23453,10 +23449,10 @@
         <v>164</v>
       </c>
       <c r="E6" s="66">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F6" s="56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G6" s="33"/>
       <c r="H6" s="33"/>
@@ -25091,11 +25087,11 @@
       </c>
       <c r="E127" s="7">
         <f>IFERROR(E$4*(1-EXP(-$D127/(E$4*E$5))),"")</f>
-        <v>9.9997500041748566E-5</v>
+        <v>9.9996666740820306E-5</v>
       </c>
       <c r="F127" s="7">
         <f t="shared" ref="F127:O142" si="3">IFERROR(F$4*(1-EXP(-$D127/(F$4*F$5))),"")</f>
-        <v>9.9997500041748566E-5</v>
+        <v>9.9996666740820306E-5</v>
       </c>
       <c r="G127" s="7" t="str">
         <f t="shared" si="3"/>
@@ -25135,7 +25131,7 @@
       </c>
       <c r="P127" s="7">
         <f>SUM(F127:O127)</f>
-        <v>9.9997500041748566E-5</v>
+        <v>9.9996666740820306E-5</v>
       </c>
     </row>
     <row r="128" spans="4:16" x14ac:dyDescent="0.3">
@@ -25144,11 +25140,11 @@
       </c>
       <c r="E128" s="7">
         <f t="shared" ref="E128:O148" si="4">IFERROR(E$4*(1-EXP(-$D128/(E$4*E$5))),"")</f>
-        <v>1.999900003333277E-4</v>
+        <v>1.999866672592332E-4</v>
       </c>
       <c r="F128" s="7">
         <f t="shared" si="3"/>
-        <v>1.999900003333277E-4</v>
+        <v>1.999866672592332E-4</v>
       </c>
       <c r="G128" s="7" t="str">
         <f t="shared" si="3"/>
@@ -25188,7 +25184,7 @@
       </c>
       <c r="P128" s="7">
         <f t="shared" ref="P128:P147" si="5">SUM(F128:O128)</f>
-        <v>1.999900003333277E-4</v>
+        <v>1.999866672592332E-4</v>
       </c>
     </row>
     <row r="129" spans="4:16" x14ac:dyDescent="0.3">
@@ -25197,11 +25193,11 @@
       </c>
       <c r="E129" s="7">
         <f t="shared" si="4"/>
-        <v>4.9993750520793689E-4</v>
+        <v>4.9991667592513833E-4</v>
       </c>
       <c r="F129" s="7">
         <f t="shared" si="3"/>
-        <v>4.9993750520793689E-4</v>
+        <v>4.9991667592513833E-4</v>
       </c>
       <c r="G129" s="7" t="str">
         <f t="shared" si="3"/>
@@ -25241,7 +25237,7 @@
       </c>
       <c r="P129" s="7">
         <f t="shared" si="5"/>
-        <v>4.9993750520793689E-4</v>
+        <v>4.9991667592513833E-4</v>
       </c>
     </row>
     <row r="130" spans="4:16" x14ac:dyDescent="0.3">
@@ -25250,11 +25246,11 @@
       </c>
       <c r="E130" s="7">
         <f t="shared" si="4"/>
-        <v>9.9975004166141801E-4</v>
+        <v>9.9966674072837769E-4</v>
       </c>
       <c r="F130" s="7">
         <f t="shared" si="3"/>
-        <v>9.9975004166141801E-4</v>
+        <v>9.9966674072837769E-4</v>
       </c>
       <c r="G130" s="7" t="str">
         <f t="shared" si="3"/>
@@ -25294,7 +25290,7 @@
       </c>
       <c r="P130" s="7">
         <f t="shared" si="5"/>
-        <v>9.9975004166141801E-4</v>
+        <v>9.9966674072837769E-4</v>
       </c>
     </row>
     <row r="131" spans="4:16" x14ac:dyDescent="0.3">
@@ -25303,11 +25299,11 @@
       </c>
       <c r="E131" s="7">
         <f t="shared" si="4"/>
-        <v>1.9990003332499562E-3</v>
+        <v>1.9986672590618371E-3</v>
       </c>
       <c r="F131" s="7">
         <f t="shared" si="3"/>
-        <v>1.9990003332499562E-3</v>
+        <v>1.9986672590618371E-3</v>
       </c>
       <c r="G131" s="7" t="str">
         <f t="shared" si="3"/>
@@ -25347,7 +25343,7 @@
       </c>
       <c r="P131" s="7">
         <f t="shared" si="5"/>
-        <v>1.9990003332499562E-3</v>
+        <v>1.9986672590618371E-3</v>
       </c>
     </row>
     <row r="132" spans="4:16" x14ac:dyDescent="0.3">
@@ -25356,11 +25352,11 @@
       </c>
       <c r="E132" s="7">
         <f t="shared" si="4"/>
-        <v>4.9937552050798306E-3</v>
+        <v>4.9916759182150883E-3</v>
       </c>
       <c r="F132" s="7">
         <f t="shared" si="3"/>
-        <v>4.9937552050798306E-3</v>
+        <v>4.9916759182150883E-3</v>
       </c>
       <c r="G132" s="7" t="str">
         <f t="shared" si="3"/>
@@ -25400,7 +25396,7 @@
       </c>
       <c r="P132" s="7">
         <f t="shared" si="5"/>
-        <v>4.9937552050798306E-3</v>
+        <v>4.9916759182150883E-3</v>
       </c>
     </row>
     <row r="133" spans="4:16" x14ac:dyDescent="0.3">
@@ -25409,11 +25405,11 @@
       </c>
       <c r="E133" s="7">
         <f t="shared" si="4"/>
-        <v>9.9750416146353604E-3</v>
+        <v>9.9667406174483442E-3</v>
       </c>
       <c r="F133" s="7">
         <f t="shared" si="3"/>
-        <v>9.9750416146353604E-3</v>
+        <v>9.9667406174483442E-3</v>
       </c>
       <c r="G133" s="7" t="str">
         <f t="shared" si="3"/>
@@ -25453,7 +25449,7 @@
       </c>
       <c r="P133" s="7">
         <f t="shared" si="5"/>
-        <v>9.9750416146353604E-3</v>
+        <v>9.9667406174483442E-3</v>
       </c>
     </row>
     <row r="134" spans="4:16" x14ac:dyDescent="0.3">
@@ -25462,11 +25458,11 @@
       </c>
       <c r="E134" s="7">
         <f t="shared" si="4"/>
-        <v>1.9900332501663787E-2</v>
+        <v>1.9867257289206464E-2</v>
       </c>
       <c r="F134" s="7">
         <f t="shared" si="3"/>
-        <v>1.9900332501663787E-2</v>
+        <v>1.9867257289206464E-2</v>
       </c>
       <c r="G134" s="7" t="str">
         <f t="shared" si="3"/>
@@ -25506,7 +25502,7 @@
       </c>
       <c r="P134" s="7">
         <f t="shared" si="5"/>
-        <v>1.9900332501663787E-2</v>
+        <v>1.9867257289206464E-2</v>
       </c>
     </row>
     <row r="135" spans="4:16" x14ac:dyDescent="0.3">
@@ -25515,11 +25511,11 @@
       </c>
       <c r="E135" s="7">
         <f t="shared" si="4"/>
-        <v>4.938017594333477E-2</v>
+        <v>4.9175849276991146E-2</v>
       </c>
       <c r="F135" s="7">
         <f t="shared" si="3"/>
-        <v>4.938017594333477E-2</v>
+        <v>4.9175849276991146E-2</v>
       </c>
       <c r="G135" s="7" t="str">
         <f t="shared" si="3"/>
@@ -25559,7 +25555,7 @@
       </c>
       <c r="P135" s="7">
         <f t="shared" si="5"/>
-        <v>4.938017594333477E-2</v>
+        <v>4.9175849276991146E-2</v>
       </c>
     </row>
     <row r="136" spans="4:16" x14ac:dyDescent="0.3">
@@ -25568,11 +25564,11 @@
       </c>
       <c r="E136" s="7">
         <f t="shared" si="4"/>
-        <v>9.7541150998571968E-2</v>
+        <v>9.6739522452573334E-2</v>
       </c>
       <c r="F136" s="7">
         <f t="shared" si="3"/>
-        <v>9.7541150998571968E-2</v>
+        <v>9.6739522452573334E-2</v>
       </c>
       <c r="G136" s="7" t="str">
         <f t="shared" si="3"/>
@@ -25612,7 +25608,7 @@
       </c>
       <c r="P136" s="7">
         <f t="shared" si="5"/>
-        <v>9.7541150998571968E-2</v>
+        <v>9.6739522452573334E-2</v>
       </c>
     </row>
     <row r="137" spans="4:16" x14ac:dyDescent="0.3">
@@ -25621,11 +25617,11 @@
       </c>
       <c r="E137" s="7">
         <f t="shared" si="4"/>
-        <v>0.19032516392808096</v>
+        <v>0.18724002143557877</v>
       </c>
       <c r="F137" s="7">
         <f t="shared" si="3"/>
-        <v>0.19032516392808096</v>
+        <v>0.18724002143557877</v>
       </c>
       <c r="G137" s="7" t="str">
         <f t="shared" si="3"/>
@@ -25665,7 +25661,7 @@
       </c>
       <c r="P137" s="7">
         <f t="shared" si="5"/>
-        <v>0.19032516392808096</v>
+        <v>0.18724002143557877</v>
       </c>
     </row>
     <row r="138" spans="4:16" x14ac:dyDescent="0.3">
@@ -25674,11 +25670,11 @@
       </c>
       <c r="E138" s="7">
         <f t="shared" si="4"/>
-        <v>0.44239843385719024</v>
+        <v>0.42520303413931609</v>
       </c>
       <c r="F138" s="7">
         <f t="shared" si="3"/>
-        <v>0.44239843385719024</v>
+        <v>0.42520303413931609</v>
       </c>
       <c r="G138" s="7" t="str">
         <f t="shared" si="3"/>
@@ -25718,7 +25714,7 @@
       </c>
       <c r="P138" s="7">
         <f t="shared" si="5"/>
-        <v>0.44239843385719024</v>
+        <v>0.42520303413931609</v>
       </c>
     </row>
     <row r="139" spans="4:16" x14ac:dyDescent="0.3">
@@ -25727,11 +25723,11 @@
       </c>
       <c r="E139" s="7">
         <f t="shared" si="4"/>
-        <v>0.78693868057473315</v>
+        <v>0.72987432145111197</v>
       </c>
       <c r="F139" s="7">
         <f t="shared" si="3"/>
-        <v>0.78693868057473315</v>
+        <v>0.72987432145111197</v>
       </c>
       <c r="G139" s="7" t="str">
         <f t="shared" si="3"/>
@@ -25771,7 +25767,7 @@
       </c>
       <c r="P139" s="7">
         <f t="shared" si="5"/>
-        <v>0.78693868057473315</v>
+        <v>0.72987432145111197</v>
       </c>
     </row>
     <row r="140" spans="4:16" x14ac:dyDescent="0.3">
@@ -25780,11 +25776,11 @@
       </c>
       <c r="E140" s="7">
         <f t="shared" si="4"/>
-        <v>1.2642411176571153</v>
+        <v>1.1046042928264099</v>
       </c>
       <c r="F140" s="7">
         <f t="shared" si="3"/>
-        <v>1.2642411176571153</v>
+        <v>1.1046042928264099</v>
       </c>
       <c r="G140" s="7" t="str">
         <f t="shared" si="3"/>
@@ -25824,7 +25820,7 @@
       </c>
       <c r="P140" s="7">
         <f t="shared" si="5"/>
-        <v>1.2642411176571153</v>
+        <v>1.1046042928264099</v>
       </c>
     </row>
     <row r="141" spans="4:16" x14ac:dyDescent="0.3">
@@ -25833,11 +25829,11 @@
       </c>
       <c r="E141" s="7">
         <f t="shared" si="4"/>
-        <v>1.8358300027522023</v>
+        <v>1.4464890099791214</v>
       </c>
       <c r="F141" s="7">
         <f t="shared" si="3"/>
-        <v>1.8358300027522023</v>
+        <v>1.4464890099791214</v>
       </c>
       <c r="G141" s="7" t="str">
         <f t="shared" si="3"/>
@@ -25877,7 +25873,7 @@
       </c>
       <c r="P141" s="7">
         <f t="shared" si="5"/>
-        <v>1.8358300027522023</v>
+        <v>1.4464890099791214</v>
       </c>
     </row>
     <row r="142" spans="4:16" x14ac:dyDescent="0.3">
@@ -25886,11 +25882,11 @@
       </c>
       <c r="E142" s="7">
         <f t="shared" si="4"/>
-        <v>1.986524106001829</v>
+        <v>1.4980910492979902</v>
       </c>
       <c r="F142" s="7">
         <f t="shared" si="3"/>
-        <v>1.986524106001829</v>
+        <v>1.4980910492979902</v>
       </c>
       <c r="G142" s="7" t="str">
         <f t="shared" si="3"/>
@@ -25930,7 +25926,7 @@
       </c>
       <c r="P142" s="7">
         <f t="shared" si="5"/>
-        <v>1.986524106001829</v>
+        <v>1.4980910492979902</v>
       </c>
     </row>
     <row r="143" spans="4:16" x14ac:dyDescent="0.3">
@@ -25939,11 +25935,11 @@
       </c>
       <c r="E143" s="7">
         <f t="shared" si="4"/>
-        <v>1.999909200140475</v>
+        <v>1.4999975706048114</v>
       </c>
       <c r="F143" s="7">
         <f t="shared" si="4"/>
-        <v>1.999909200140475</v>
+        <v>1.4999975706048114</v>
       </c>
       <c r="G143" s="7" t="str">
         <f t="shared" si="4"/>
@@ -25983,7 +25979,7 @@
       </c>
       <c r="P143" s="7">
         <f t="shared" si="5"/>
-        <v>1.999909200140475</v>
+        <v>1.4999975706048114</v>
       </c>
     </row>
     <row r="144" spans="4:16" x14ac:dyDescent="0.3">
@@ -25992,11 +25988,11 @@
       </c>
       <c r="E144" s="7">
         <f t="shared" si="4"/>
-        <v>1.9999999999722242</v>
+        <v>1.4999999999999951</v>
       </c>
       <c r="F144" s="7">
         <f t="shared" si="4"/>
-        <v>1.9999999999722242</v>
+        <v>1.4999999999999951</v>
       </c>
       <c r="G144" s="7" t="str">
         <f t="shared" si="4"/>
@@ -26036,7 +26032,7 @@
       </c>
       <c r="P144" s="7">
         <f t="shared" si="5"/>
-        <v>1.9999999999722242</v>
+        <v>1.4999999999999951</v>
       </c>
     </row>
     <row r="145" spans="4:16" x14ac:dyDescent="0.3">
@@ -26045,11 +26041,11 @@
       </c>
       <c r="E145" s="7">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F145" s="7">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="G145" s="7" t="str">
         <f t="shared" si="4"/>
@@ -26089,7 +26085,7 @@
       </c>
       <c r="P145" s="7">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="146" spans="4:16" x14ac:dyDescent="0.3">
@@ -26098,11 +26094,11 @@
       </c>
       <c r="E146" s="7">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F146" s="7">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="G146" s="7" t="str">
         <f t="shared" si="4"/>
@@ -26142,7 +26138,7 @@
       </c>
       <c r="P146" s="7">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="147" spans="4:16" x14ac:dyDescent="0.3">
@@ -26151,11 +26147,11 @@
       </c>
       <c r="E147" s="7">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F147" s="7">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="G147" s="7" t="str">
         <f t="shared" si="4"/>
@@ -26195,7 +26191,7 @@
       </c>
       <c r="P147" s="7">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="148" spans="4:16" x14ac:dyDescent="0.3">
@@ -26204,11 +26200,11 @@
       </c>
       <c r="E148" s="7">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F148" s="7">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="G148" s="7" t="str">
         <f t="shared" si="4"/>
@@ -26248,7 +26244,7 @@
       </c>
       <c r="P148" s="7">
         <f>SUM(F148:O148)</f>
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="153" spans="4:16" x14ac:dyDescent="0.3">
@@ -26298,11 +26294,11 @@
       </c>
       <c r="E154" s="7">
         <f>IFERROR(E$6*(1-EXP(-$D154/(E$7*E$5))),"")</f>
-        <v>7.9999919999629299E-6</v>
+        <v>3.9999959999814649E-6</v>
       </c>
       <c r="F154" s="7">
         <f>IFERROR(F$6*(1-EXP(-$D154/(F$7*F$5))),"")</f>
-        <v>7.9999919999629299E-6</v>
+        <v>3.9999959999814649E-6</v>
       </c>
       <c r="G154" s="7" t="str">
         <f t="shared" ref="G154:O169" si="6">IFERROR(G$6*(1-EXP(-$D154/(G$7*G$5))),"")</f>
@@ -26342,7 +26338,7 @@
       </c>
       <c r="P154" s="7">
         <f>SUM(F154:O154)</f>
-        <v>7.9999919999629299E-6</v>
+        <v>3.9999959999814649E-6</v>
       </c>
     </row>
     <row r="155" spans="4:16" x14ac:dyDescent="0.3">
@@ -26351,11 +26347,11 @@
       </c>
       <c r="E155" s="7">
         <f t="shared" ref="E155:O175" si="7">IFERROR(E$6*(1-EXP(-$D155/(E$7*E$5))),"")</f>
-        <v>1.5999967999835718E-5</v>
+        <v>7.999983999917859E-6</v>
       </c>
       <c r="F155" s="7">
         <f t="shared" si="7"/>
-        <v>1.5999967999835718E-5</v>
+        <v>7.999983999917859E-6</v>
       </c>
       <c r="G155" s="7" t="str">
         <f t="shared" si="6"/>
@@ -26395,7 +26391,7 @@
       </c>
       <c r="P155" s="7">
         <f t="shared" ref="P155:P174" si="8">SUM(F155:O155)</f>
-        <v>1.5999967999835718E-5</v>
+        <v>7.999983999917859E-6</v>
       </c>
     </row>
     <row r="156" spans="4:16" x14ac:dyDescent="0.3">
@@ -26404,11 +26400,11 @@
       </c>
       <c r="E156" s="7">
         <f t="shared" si="7"/>
-        <v>3.9999800000689589E-5</v>
+        <v>1.9999900000344795E-5</v>
       </c>
       <c r="F156" s="7">
         <f t="shared" si="7"/>
-        <v>3.9999800000689589E-5</v>
+        <v>1.9999900000344795E-5</v>
       </c>
       <c r="G156" s="7" t="str">
         <f t="shared" si="6"/>
@@ -26448,7 +26444,7 @@
       </c>
       <c r="P156" s="7">
         <f t="shared" si="8"/>
-        <v>3.9999800000689589E-5</v>
+        <v>1.9999900000344795E-5</v>
       </c>
     </row>
     <row r="157" spans="4:16" x14ac:dyDescent="0.3">
@@ -26457,11 +26453,11 @@
       </c>
       <c r="E157" s="7">
         <f t="shared" si="7"/>
-        <v>7.9999200005342885E-5</v>
+        <v>3.9999600002671443E-5</v>
       </c>
       <c r="F157" s="7">
         <f t="shared" si="7"/>
-        <v>7.9999200005342885E-5</v>
+        <v>3.9999600002671443E-5</v>
       </c>
       <c r="G157" s="7" t="str">
         <f t="shared" si="6"/>
@@ -26501,7 +26497,7 @@
       </c>
       <c r="P157" s="7">
         <f t="shared" si="8"/>
-        <v>7.9999200005342885E-5</v>
+        <v>3.9999600002671443E-5</v>
       </c>
     </row>
     <row r="158" spans="4:16" x14ac:dyDescent="0.3">
@@ -26510,11 +26506,11 @@
       </c>
       <c r="E158" s="7">
         <f t="shared" si="7"/>
-        <v>1.5999680004252781E-4</v>
+        <v>7.9998400021263905E-5</v>
       </c>
       <c r="F158" s="7">
         <f t="shared" si="7"/>
-        <v>1.5999680004252781E-4</v>
+        <v>7.9998400021263905E-5</v>
       </c>
       <c r="G158" s="7" t="str">
         <f t="shared" si="6"/>
@@ -26554,7 +26550,7 @@
       </c>
       <c r="P158" s="7">
         <f t="shared" si="8"/>
-        <v>1.5999680004252781E-4</v>
+        <v>7.9998400021263905E-5</v>
       </c>
     </row>
     <row r="159" spans="4:16" x14ac:dyDescent="0.3">
@@ -26563,11 +26559,11 @@
       </c>
       <c r="E159" s="7">
         <f t="shared" si="7"/>
-        <v>3.999800006666554E-4</v>
+        <v>1.999900003333277E-4</v>
       </c>
       <c r="F159" s="7">
         <f t="shared" si="7"/>
-        <v>3.999800006666554E-4</v>
+        <v>1.999900003333277E-4</v>
       </c>
       <c r="G159" s="7" t="str">
         <f t="shared" si="6"/>
@@ -26607,7 +26603,7 @@
       </c>
       <c r="P159" s="7">
         <f t="shared" si="8"/>
-        <v>3.999800006666554E-4</v>
+        <v>1.999900003333277E-4</v>
       </c>
     </row>
     <row r="160" spans="4:16" x14ac:dyDescent="0.3">
@@ -26616,11 +26612,11 @@
       </c>
       <c r="E160" s="7">
         <f t="shared" si="7"/>
-        <v>7.9992000533302132E-4</v>
+        <v>3.9996000266651066E-4</v>
       </c>
       <c r="F160" s="7">
         <f t="shared" si="7"/>
-        <v>7.9992000533302132E-4</v>
+        <v>3.9996000266651066E-4</v>
       </c>
       <c r="G160" s="7" t="str">
         <f t="shared" si="6"/>
@@ -26660,7 +26656,7 @@
       </c>
       <c r="P160" s="7">
         <f t="shared" si="8"/>
-        <v>7.9992000533302132E-4</v>
+        <v>3.9996000266651066E-4</v>
       </c>
     </row>
     <row r="161" spans="4:16" x14ac:dyDescent="0.3">
@@ -26669,11 +26665,11 @@
       </c>
       <c r="E161" s="7">
         <f t="shared" si="7"/>
-        <v>1.5996800426623103E-3</v>
+        <v>7.9984002133115517E-4</v>
       </c>
       <c r="F161" s="7">
         <f t="shared" si="7"/>
-        <v>1.5996800426623103E-3</v>
+        <v>7.9984002133115517E-4</v>
       </c>
       <c r="G161" s="7" t="str">
         <f t="shared" si="6"/>
@@ -26713,7 +26709,7 @@
       </c>
       <c r="P161" s="7">
         <f t="shared" si="8"/>
-        <v>1.5996800426623103E-3</v>
+        <v>7.9984002133115517E-4</v>
       </c>
     </row>
     <row r="162" spans="4:16" x14ac:dyDescent="0.3">
@@ -26722,11 +26718,11 @@
       </c>
       <c r="E162" s="7">
         <f t="shared" si="7"/>
-        <v>3.9980006664999124E-3</v>
+        <v>1.9990003332499562E-3</v>
       </c>
       <c r="F162" s="7">
         <f t="shared" si="7"/>
-        <v>3.9980006664999124E-3</v>
+        <v>1.9990003332499562E-3</v>
       </c>
       <c r="G162" s="7" t="str">
         <f t="shared" si="6"/>
@@ -26766,7 +26762,7 @@
       </c>
       <c r="P162" s="7">
         <f t="shared" si="8"/>
-        <v>3.9980006664999124E-3</v>
+        <v>1.9990003332499562E-3</v>
       </c>
     </row>
     <row r="163" spans="4:16" x14ac:dyDescent="0.3">
@@ -26775,11 +26771,11 @@
       </c>
       <c r="E163" s="7">
         <f t="shared" si="7"/>
-        <v>7.9920053306676841E-3</v>
+        <v>3.9960026653338421E-3</v>
       </c>
       <c r="F163" s="7">
         <f t="shared" si="7"/>
-        <v>7.9920053306676841E-3</v>
+        <v>3.9960026653338421E-3</v>
       </c>
       <c r="G163" s="7" t="str">
         <f t="shared" si="6"/>
@@ -26819,7 +26815,7 @@
       </c>
       <c r="P163" s="7">
         <f t="shared" si="8"/>
-        <v>7.9920053306676841E-3</v>
+        <v>3.9960026653338421E-3</v>
       </c>
     </row>
     <row r="164" spans="4:16" x14ac:dyDescent="0.3">
@@ -26828,11 +26824,11 @@
       </c>
       <c r="E164" s="7">
         <f t="shared" si="7"/>
-        <v>1.5968042624034062E-2</v>
+        <v>7.9840213120170311E-3</v>
       </c>
       <c r="F164" s="7">
         <f t="shared" si="7"/>
-        <v>1.5968042624034062E-2</v>
+        <v>7.9840213120170311E-3</v>
       </c>
       <c r="G164" s="7" t="str">
         <f t="shared" si="6"/>
@@ -26872,7 +26868,7 @@
       </c>
       <c r="P164" s="7">
         <f t="shared" si="8"/>
-        <v>1.5968042624034062E-2</v>
+        <v>7.9840213120170311E-3</v>
       </c>
     </row>
     <row r="165" spans="4:16" x14ac:dyDescent="0.3">
@@ -26881,11 +26877,11 @@
       </c>
       <c r="E165" s="7">
         <f t="shared" si="7"/>
-        <v>3.9800665003327573E-2</v>
+        <v>1.9900332501663787E-2</v>
       </c>
       <c r="F165" s="7">
         <f t="shared" si="7"/>
-        <v>3.9800665003327573E-2</v>
+        <v>1.9900332501663787E-2</v>
       </c>
       <c r="G165" s="7" t="str">
         <f t="shared" si="6"/>
@@ -26925,7 +26921,7 @@
       </c>
       <c r="P165" s="7">
         <f t="shared" si="8"/>
-        <v>3.9800665003327573E-2</v>
+        <v>1.9900332501663787E-2</v>
       </c>
     </row>
     <row r="166" spans="4:16" x14ac:dyDescent="0.3">
@@ -26934,11 +26930,11 @@
       </c>
       <c r="E166" s="7">
         <f t="shared" si="7"/>
-        <v>7.9205306772978989E-2</v>
+        <v>3.9602653386489495E-2</v>
       </c>
       <c r="F166" s="7">
         <f t="shared" si="7"/>
-        <v>7.9205306772978989E-2</v>
+        <v>3.9602653386489495E-2</v>
       </c>
       <c r="G166" s="7" t="str">
         <f t="shared" si="6"/>
@@ -26978,7 +26974,7 @@
       </c>
       <c r="P166" s="7">
         <f t="shared" si="8"/>
-        <v>7.9205306772978989E-2</v>
+        <v>3.9602653386489495E-2</v>
       </c>
     </row>
     <row r="167" spans="4:16" x14ac:dyDescent="0.3">
@@ -26987,11 +26983,11 @@
       </c>
       <c r="E167" s="7">
         <f t="shared" si="7"/>
-        <v>0.15684224339070729</v>
+        <v>7.8421121695353646E-2</v>
       </c>
       <c r="F167" s="7">
         <f t="shared" si="7"/>
-        <v>0.15684224339070729</v>
+        <v>7.8421121695353646E-2</v>
       </c>
       <c r="G167" s="7" t="str">
         <f t="shared" si="6"/>
@@ -27031,7 +27027,7 @@
       </c>
       <c r="P167" s="7">
         <f t="shared" si="8"/>
-        <v>0.15684224339070729</v>
+        <v>7.8421121695353646E-2</v>
       </c>
     </row>
     <row r="168" spans="4:16" x14ac:dyDescent="0.3">
@@ -27040,11 +27036,11 @@
       </c>
       <c r="E168" s="7">
         <f t="shared" si="7"/>
-        <v>0.38065032785616193</v>
+        <v>0.19032516392808096</v>
       </c>
       <c r="F168" s="7">
         <f t="shared" si="7"/>
-        <v>0.38065032785616193</v>
+        <v>0.19032516392808096</v>
       </c>
       <c r="G168" s="7" t="str">
         <f t="shared" si="6"/>
@@ -27084,7 +27080,7 @@
       </c>
       <c r="P168" s="7">
         <f t="shared" si="8"/>
-        <v>0.38065032785616193</v>
+        <v>0.19032516392808096</v>
       </c>
     </row>
     <row r="169" spans="4:16" x14ac:dyDescent="0.3">
@@ -27093,11 +27089,11 @@
       </c>
       <c r="E169" s="7">
         <f t="shared" si="7"/>
-        <v>0.72507698768807272</v>
+        <v>0.36253849384403636</v>
       </c>
       <c r="F169" s="7">
         <f t="shared" si="7"/>
-        <v>0.72507698768807272</v>
+        <v>0.36253849384403636</v>
       </c>
       <c r="G169" s="7" t="str">
         <f t="shared" si="6"/>
@@ -27137,7 +27133,7 @@
       </c>
       <c r="P169" s="7">
         <f t="shared" si="8"/>
-        <v>0.72507698768807272</v>
+        <v>0.36253849384403636</v>
       </c>
     </row>
     <row r="170" spans="4:16" x14ac:dyDescent="0.3">
@@ -27146,11 +27142,11 @@
       </c>
       <c r="E170" s="7">
         <f t="shared" si="7"/>
-        <v>1.3187198158574427</v>
+        <v>0.65935990792872134</v>
       </c>
       <c r="F170" s="7">
         <f t="shared" si="7"/>
-        <v>1.3187198158574427</v>
+        <v>0.65935990792872134</v>
       </c>
       <c r="G170" s="7" t="str">
         <f t="shared" si="7"/>
@@ -27190,7 +27186,7 @@
       </c>
       <c r="P170" s="7">
         <f t="shared" si="8"/>
-        <v>1.3187198158574427</v>
+        <v>0.65935990792872134</v>
       </c>
     </row>
     <row r="171" spans="4:16" x14ac:dyDescent="0.3">
@@ -27199,11 +27195,11 @@
       </c>
       <c r="E171" s="7">
         <f t="shared" si="7"/>
-        <v>2.5284822353142307</v>
+        <v>1.2642411176571153</v>
       </c>
       <c r="F171" s="7">
         <f t="shared" si="7"/>
-        <v>2.5284822353142307</v>
+        <v>1.2642411176571153</v>
       </c>
       <c r="G171" s="7" t="str">
         <f t="shared" si="7"/>
@@ -27243,7 +27239,7 @@
       </c>
       <c r="P171" s="7">
         <f t="shared" si="8"/>
-        <v>2.5284822353142307</v>
+        <v>1.2642411176571153</v>
       </c>
     </row>
     <row r="172" spans="4:16" x14ac:dyDescent="0.3">
@@ -27252,11 +27248,11 @@
       </c>
       <c r="E172" s="7">
         <f t="shared" si="7"/>
-        <v>3.4586588670535492</v>
+        <v>1.7293294335267746</v>
       </c>
       <c r="F172" s="7">
         <f t="shared" si="7"/>
-        <v>3.4586588670535492</v>
+        <v>1.7293294335267746</v>
       </c>
       <c r="G172" s="7" t="str">
         <f t="shared" si="7"/>
@@ -27296,7 +27292,7 @@
       </c>
       <c r="P172" s="7">
         <f t="shared" si="8"/>
-        <v>3.4586588670535492</v>
+        <v>1.7293294335267746</v>
       </c>
     </row>
     <row r="173" spans="4:16" x14ac:dyDescent="0.3">
@@ -27305,11 +27301,11 @@
       </c>
       <c r="E173" s="7">
         <f t="shared" si="7"/>
-        <v>3.9267374444450631</v>
+        <v>1.9633687222225316</v>
       </c>
       <c r="F173" s="7">
         <f t="shared" si="7"/>
-        <v>3.9267374444450631</v>
+        <v>1.9633687222225316</v>
       </c>
       <c r="G173" s="7" t="str">
         <f t="shared" si="7"/>
@@ -27349,7 +27345,7 @@
       </c>
       <c r="P173" s="7">
         <f t="shared" si="8"/>
-        <v>3.9267374444450631</v>
+        <v>1.9633687222225316</v>
       </c>
     </row>
     <row r="174" spans="4:16" x14ac:dyDescent="0.3">
@@ -27358,11 +27354,11 @@
       </c>
       <c r="E174" s="7">
         <f t="shared" si="7"/>
-        <v>3.99981840028095</v>
+        <v>1.999909200140475</v>
       </c>
       <c r="F174" s="7">
         <f t="shared" si="7"/>
-        <v>3.99981840028095</v>
+        <v>1.999909200140475</v>
       </c>
       <c r="G174" s="7" t="str">
         <f t="shared" si="7"/>
@@ -27402,7 +27398,7 @@
       </c>
       <c r="P174" s="7">
         <f t="shared" si="8"/>
-        <v>3.99981840028095</v>
+        <v>1.999909200140475</v>
       </c>
     </row>
     <row r="175" spans="4:16" x14ac:dyDescent="0.3">
@@ -27411,11 +27407,11 @@
       </c>
       <c r="E175" s="7">
         <f t="shared" si="7"/>
-        <v>3.9999999917553857</v>
+        <v>1.9999999958776928</v>
       </c>
       <c r="F175" s="7">
         <f t="shared" si="7"/>
-        <v>3.9999999917553857</v>
+        <v>1.9999999958776928</v>
       </c>
       <c r="G175" s="7" t="str">
         <f t="shared" si="7"/>
@@ -27455,7 +27451,7 @@
       </c>
       <c r="P175" s="7">
         <f>SUM(F175:O175)</f>
-        <v>3.9999999917553857</v>
+        <v>1.9999999958776928</v>
       </c>
     </row>
     <row r="180" spans="4:16" x14ac:dyDescent="0.3">

--- a/para/Tra/trafoDAB.xlsx
+++ b/para/Tra/trafoDAB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f215465b21b5e6e2/Studium/34_Github/PyPowerSim/para/Tra/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1985" documentId="11_AD4DB114E441178AC67DF439BED5CE16693EDF27" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A809740-7752-4336-B136-CC4B4EDBC32F}"/>
+  <xr:revisionPtr revIDLastSave="2018" documentId="11_AD4DB114E441178AC67DF439BED5CE16693EDF27" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53ECCED4-C566-4113-947B-29527C752828}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="30912" windowHeight="16752" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="188">
   <si>
     <t>Parameter</t>
   </si>
@@ -554,6 +554,54 @@
   </si>
   <si>
     <t>m2</t>
+  </si>
+  <si>
+    <t>Path Length</t>
+  </si>
+  <si>
+    <t>Length of the effective flux path</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Flux Saturation</t>
+  </si>
+  <si>
+    <t>Saturation of the magnetic flux density</t>
+  </si>
+  <si>
+    <t>B_sat</t>
+  </si>
+  <si>
+    <t>Field Saturation</t>
+  </si>
+  <si>
+    <t>Saturation of the magnetic field</t>
+  </si>
+  <si>
+    <t>H_sat</t>
+  </si>
+  <si>
+    <t>A/m</t>
+  </si>
+  <si>
+    <t>Rel. Init Permeability</t>
+  </si>
+  <si>
+    <t>Relative initial permeability</t>
+  </si>
+  <si>
+    <t>u_init</t>
+  </si>
+  <si>
+    <t>Rel. End Permeability</t>
+  </si>
+  <si>
+    <t>Relative saturated permeability</t>
+  </si>
+  <si>
+    <t>u_end</t>
   </si>
 </sst>
 </file>
@@ -1373,6 +1421,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1380,15 +1437,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -19926,6 +19974,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -20411,8 +20463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DCB0370-656A-4BCA-B950-AA707D31C9FC}">
   <dimension ref="A1:AA184"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21056,11 +21108,21 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="29"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="72"/>
+      <c r="A20" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="E20" s="72">
+        <v>0.1</v>
+      </c>
       <c r="F20" s="73"/>
       <c r="G20" s="74"/>
       <c r="H20" s="74"/>
@@ -21071,14 +21133,26 @@
       <c r="M20" s="74"/>
       <c r="N20" s="74"/>
       <c r="O20" s="75"/>
-      <c r="P20" s="53"/>
+      <c r="P20" s="53" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="72"/>
+      <c r="A21" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="E21" s="72">
+        <v>0.5</v>
+      </c>
       <c r="F21" s="73"/>
       <c r="G21" s="74"/>
       <c r="H21" s="74"/>
@@ -21089,14 +21163,26 @@
       <c r="M21" s="74"/>
       <c r="N21" s="74"/>
       <c r="O21" s="75"/>
-      <c r="P21" s="53"/>
+      <c r="P21" s="53" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="72"/>
+      <c r="A22" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="E22" s="72">
+        <v>1000</v>
+      </c>
       <c r="F22" s="73"/>
       <c r="G22" s="74"/>
       <c r="H22" s="74"/>
@@ -21107,14 +21193,26 @@
       <c r="M22" s="74"/>
       <c r="N22" s="74"/>
       <c r="O22" s="75"/>
-      <c r="P22" s="53"/>
+      <c r="P22" s="53" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="72"/>
+      <c r="A23" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="E23" s="72">
+        <v>2500</v>
+      </c>
       <c r="F23" s="73"/>
       <c r="G23" s="74"/>
       <c r="H23" s="74"/>
@@ -21125,14 +21223,26 @@
       <c r="M23" s="74"/>
       <c r="N23" s="74"/>
       <c r="O23" s="75"/>
-      <c r="P23" s="53"/>
+      <c r="P23" s="53" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="72"/>
+      <c r="A24" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="E24" s="72">
+        <v>5</v>
+      </c>
       <c r="F24" s="73"/>
       <c r="G24" s="74"/>
       <c r="H24" s="74"/>
@@ -21143,7 +21253,9 @@
       <c r="M24" s="74"/>
       <c r="N24" s="74"/>
       <c r="O24" s="75"/>
-      <c r="P24" s="53"/>
+      <c r="P24" s="53" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="29"/>
@@ -21201,36 +21313,36 @@
     </row>
     <row r="31" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="82" t="s">
+      <c r="A32" s="79" t="s">
         <v>132</v>
       </c>
-      <c r="B32" s="83"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="83"/>
-      <c r="I32" s="83"/>
-      <c r="J32" s="83"/>
-      <c r="K32" s="84"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="80"/>
+      <c r="G32" s="80"/>
+      <c r="H32" s="80"/>
+      <c r="I32" s="80"/>
+      <c r="J32" s="80"/>
+      <c r="K32" s="81"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="B33" s="79" t="s">
+      <c r="B33" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="80"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="80"/>
-      <c r="I33" s="80"/>
-      <c r="J33" s="80"/>
-      <c r="K33" s="81"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="83"/>
+      <c r="E33" s="83"/>
+      <c r="F33" s="83"/>
+      <c r="G33" s="83"/>
+      <c r="H33" s="83"/>
+      <c r="I33" s="83"/>
+      <c r="J33" s="83"/>
+      <c r="K33" s="84"/>
     </row>
     <row r="34" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="86"/>
@@ -21462,36 +21574,36 @@
     </row>
     <row r="51" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="82" t="s">
+      <c r="A52" s="79" t="s">
         <v>133</v>
       </c>
-      <c r="B52" s="83"/>
-      <c r="C52" s="83"/>
-      <c r="D52" s="83"/>
-      <c r="E52" s="83"/>
-      <c r="F52" s="83"/>
-      <c r="G52" s="83"/>
-      <c r="H52" s="83"/>
-      <c r="I52" s="83"/>
-      <c r="J52" s="83"/>
-      <c r="K52" s="84"/>
+      <c r="B52" s="80"/>
+      <c r="C52" s="80"/>
+      <c r="D52" s="80"/>
+      <c r="E52" s="80"/>
+      <c r="F52" s="80"/>
+      <c r="G52" s="80"/>
+      <c r="H52" s="80"/>
+      <c r="I52" s="80"/>
+      <c r="J52" s="80"/>
+      <c r="K52" s="81"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="B53" s="79" t="s">
+      <c r="B53" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="C53" s="80"/>
-      <c r="D53" s="80"/>
-      <c r="E53" s="80"/>
-      <c r="F53" s="80"/>
-      <c r="G53" s="80"/>
-      <c r="H53" s="80"/>
-      <c r="I53" s="80"/>
-      <c r="J53" s="80"/>
-      <c r="K53" s="81"/>
+      <c r="C53" s="83"/>
+      <c r="D53" s="83"/>
+      <c r="E53" s="83"/>
+      <c r="F53" s="83"/>
+      <c r="G53" s="83"/>
+      <c r="H53" s="83"/>
+      <c r="I53" s="83"/>
+      <c r="J53" s="83"/>
+      <c r="K53" s="84"/>
     </row>
     <row r="54" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="86"/>
@@ -21723,36 +21835,36 @@
     </row>
     <row r="71" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="82" t="s">
+      <c r="A72" s="79" t="s">
         <v>138</v>
       </c>
-      <c r="B72" s="83"/>
-      <c r="C72" s="83"/>
-      <c r="D72" s="83"/>
-      <c r="E72" s="83"/>
-      <c r="F72" s="83"/>
-      <c r="G72" s="83"/>
-      <c r="H72" s="83"/>
-      <c r="I72" s="83"/>
-      <c r="J72" s="83"/>
-      <c r="K72" s="84"/>
+      <c r="B72" s="80"/>
+      <c r="C72" s="80"/>
+      <c r="D72" s="80"/>
+      <c r="E72" s="80"/>
+      <c r="F72" s="80"/>
+      <c r="G72" s="80"/>
+      <c r="H72" s="80"/>
+      <c r="I72" s="80"/>
+      <c r="J72" s="80"/>
+      <c r="K72" s="81"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="85" t="s">
         <v>139</v>
       </c>
-      <c r="B73" s="79" t="s">
+      <c r="B73" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="C73" s="80"/>
-      <c r="D73" s="80"/>
-      <c r="E73" s="80"/>
-      <c r="F73" s="80"/>
-      <c r="G73" s="80"/>
-      <c r="H73" s="80"/>
-      <c r="I73" s="80"/>
-      <c r="J73" s="80"/>
-      <c r="K73" s="81"/>
+      <c r="C73" s="83"/>
+      <c r="D73" s="83"/>
+      <c r="E73" s="83"/>
+      <c r="F73" s="83"/>
+      <c r="G73" s="83"/>
+      <c r="H73" s="83"/>
+      <c r="I73" s="83"/>
+      <c r="J73" s="83"/>
+      <c r="K73" s="84"/>
     </row>
     <row r="74" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="86"/>
@@ -21979,36 +22091,36 @@
     </row>
     <row r="91" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="82" t="s">
+      <c r="A92" s="79" t="s">
         <v>140</v>
       </c>
-      <c r="B92" s="83"/>
-      <c r="C92" s="83"/>
-      <c r="D92" s="83"/>
-      <c r="E92" s="83"/>
-      <c r="F92" s="83"/>
-      <c r="G92" s="83"/>
-      <c r="H92" s="83"/>
-      <c r="I92" s="83"/>
-      <c r="J92" s="83"/>
-      <c r="K92" s="84"/>
+      <c r="B92" s="80"/>
+      <c r="C92" s="80"/>
+      <c r="D92" s="80"/>
+      <c r="E92" s="80"/>
+      <c r="F92" s="80"/>
+      <c r="G92" s="80"/>
+      <c r="H92" s="80"/>
+      <c r="I92" s="80"/>
+      <c r="J92" s="80"/>
+      <c r="K92" s="81"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="85" t="s">
         <v>139</v>
       </c>
-      <c r="B93" s="79" t="s">
+      <c r="B93" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="C93" s="80"/>
-      <c r="D93" s="80"/>
-      <c r="E93" s="80"/>
-      <c r="F93" s="80"/>
-      <c r="G93" s="80"/>
-      <c r="H93" s="80"/>
-      <c r="I93" s="80"/>
-      <c r="J93" s="80"/>
-      <c r="K93" s="81"/>
+      <c r="C93" s="83"/>
+      <c r="D93" s="83"/>
+      <c r="E93" s="83"/>
+      <c r="F93" s="83"/>
+      <c r="G93" s="83"/>
+      <c r="H93" s="83"/>
+      <c r="I93" s="83"/>
+      <c r="J93" s="83"/>
+      <c r="K93" s="84"/>
     </row>
     <row r="94" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="86"/>
@@ -22235,37 +22347,37 @@
     </row>
     <row r="111" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A112" s="82" t="s">
+      <c r="A112" s="79" t="s">
         <v>142</v>
       </c>
-      <c r="B112" s="83"/>
-      <c r="C112" s="83"/>
-      <c r="D112" s="83"/>
-      <c r="E112" s="83"/>
-      <c r="F112" s="83"/>
-      <c r="G112" s="83"/>
-      <c r="H112" s="83"/>
-      <c r="I112" s="83"/>
-      <c r="J112" s="83"/>
-      <c r="K112" s="84"/>
+      <c r="B112" s="80"/>
+      <c r="C112" s="80"/>
+      <c r="D112" s="80"/>
+      <c r="E112" s="80"/>
+      <c r="F112" s="80"/>
+      <c r="G112" s="80"/>
+      <c r="H112" s="80"/>
+      <c r="I112" s="80"/>
+      <c r="J112" s="80"/>
+      <c r="K112" s="81"/>
       <c r="L112" s="2"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="85" t="s">
         <v>141</v>
       </c>
-      <c r="B113" s="79" t="s">
+      <c r="B113" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C113" s="80"/>
-      <c r="D113" s="80"/>
-      <c r="E113" s="80"/>
-      <c r="F113" s="80"/>
-      <c r="G113" s="80"/>
-      <c r="H113" s="80"/>
-      <c r="I113" s="80"/>
-      <c r="J113" s="80"/>
-      <c r="K113" s="81"/>
+      <c r="C113" s="83"/>
+      <c r="D113" s="83"/>
+      <c r="E113" s="83"/>
+      <c r="F113" s="83"/>
+      <c r="G113" s="83"/>
+      <c r="H113" s="83"/>
+      <c r="I113" s="83"/>
+      <c r="J113" s="83"/>
+      <c r="K113" s="84"/>
       <c r="L113" s="1"/>
     </row>
     <row r="114" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -22504,36 +22616,36 @@
     </row>
     <row r="131" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A132" s="82" t="s">
+      <c r="A132" s="79" t="s">
         <v>143</v>
       </c>
-      <c r="B132" s="83"/>
-      <c r="C132" s="83"/>
-      <c r="D132" s="83"/>
-      <c r="E132" s="83"/>
-      <c r="F132" s="83"/>
-      <c r="G132" s="83"/>
-      <c r="H132" s="83"/>
-      <c r="I132" s="83"/>
-      <c r="J132" s="83"/>
-      <c r="K132" s="84"/>
+      <c r="B132" s="80"/>
+      <c r="C132" s="80"/>
+      <c r="D132" s="80"/>
+      <c r="E132" s="80"/>
+      <c r="F132" s="80"/>
+      <c r="G132" s="80"/>
+      <c r="H132" s="80"/>
+      <c r="I132" s="80"/>
+      <c r="J132" s="80"/>
+      <c r="K132" s="81"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="B133" s="79" t="s">
+      <c r="B133" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C133" s="80"/>
-      <c r="D133" s="80"/>
-      <c r="E133" s="80"/>
-      <c r="F133" s="80"/>
-      <c r="G133" s="80"/>
-      <c r="H133" s="80"/>
-      <c r="I133" s="80"/>
-      <c r="J133" s="80"/>
-      <c r="K133" s="81"/>
+      <c r="C133" s="83"/>
+      <c r="D133" s="83"/>
+      <c r="E133" s="83"/>
+      <c r="F133" s="83"/>
+      <c r="G133" s="83"/>
+      <c r="H133" s="83"/>
+      <c r="I133" s="83"/>
+      <c r="J133" s="83"/>
+      <c r="K133" s="84"/>
     </row>
     <row r="134" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="86"/>
@@ -22740,36 +22852,36 @@
     </row>
     <row r="151" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A152" s="82" t="s">
+      <c r="A152" s="79" t="s">
         <v>144</v>
       </c>
-      <c r="B152" s="83"/>
-      <c r="C152" s="83"/>
-      <c r="D152" s="83"/>
-      <c r="E152" s="83"/>
-      <c r="F152" s="83"/>
-      <c r="G152" s="83"/>
-      <c r="H152" s="83"/>
-      <c r="I152" s="83"/>
-      <c r="J152" s="83"/>
-      <c r="K152" s="84"/>
+      <c r="B152" s="80"/>
+      <c r="C152" s="80"/>
+      <c r="D152" s="80"/>
+      <c r="E152" s="80"/>
+      <c r="F152" s="80"/>
+      <c r="G152" s="80"/>
+      <c r="H152" s="80"/>
+      <c r="I152" s="80"/>
+      <c r="J152" s="80"/>
+      <c r="K152" s="81"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="B153" s="79" t="s">
+      <c r="B153" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C153" s="80"/>
-      <c r="D153" s="80"/>
-      <c r="E153" s="80"/>
-      <c r="F153" s="80"/>
-      <c r="G153" s="80"/>
-      <c r="H153" s="80"/>
-      <c r="I153" s="80"/>
-      <c r="J153" s="80"/>
-      <c r="K153" s="81"/>
+      <c r="C153" s="83"/>
+      <c r="D153" s="83"/>
+      <c r="E153" s="83"/>
+      <c r="F153" s="83"/>
+      <c r="G153" s="83"/>
+      <c r="H153" s="83"/>
+      <c r="I153" s="83"/>
+      <c r="J153" s="83"/>
+      <c r="K153" s="84"/>
     </row>
     <row r="154" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="86"/>
@@ -22976,36 +23088,36 @@
     </row>
     <row r="171" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="172" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A172" s="82" t="s">
+      <c r="A172" s="79" t="s">
         <v>145</v>
       </c>
-      <c r="B172" s="83"/>
-      <c r="C172" s="83"/>
-      <c r="D172" s="83"/>
-      <c r="E172" s="83"/>
-      <c r="F172" s="83"/>
-      <c r="G172" s="83"/>
-      <c r="H172" s="83"/>
-      <c r="I172" s="83"/>
-      <c r="J172" s="83"/>
-      <c r="K172" s="84"/>
+      <c r="B172" s="80"/>
+      <c r="C172" s="80"/>
+      <c r="D172" s="80"/>
+      <c r="E172" s="80"/>
+      <c r="F172" s="80"/>
+      <c r="G172" s="80"/>
+      <c r="H172" s="80"/>
+      <c r="I172" s="80"/>
+      <c r="J172" s="80"/>
+      <c r="K172" s="81"/>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="B173" s="79" t="s">
+      <c r="B173" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C173" s="80"/>
-      <c r="D173" s="80"/>
-      <c r="E173" s="80"/>
-      <c r="F173" s="80"/>
-      <c r="G173" s="80"/>
-      <c r="H173" s="80"/>
-      <c r="I173" s="80"/>
-      <c r="J173" s="80"/>
-      <c r="K173" s="81"/>
+      <c r="C173" s="83"/>
+      <c r="D173" s="83"/>
+      <c r="E173" s="83"/>
+      <c r="F173" s="83"/>
+      <c r="G173" s="83"/>
+      <c r="H173" s="83"/>
+      <c r="I173" s="83"/>
+      <c r="J173" s="83"/>
+      <c r="K173" s="84"/>
     </row>
     <row r="174" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="86"/>
@@ -23212,6 +23324,21 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B73:K73"/>
+    <mergeCell ref="A92:K92"/>
+    <mergeCell ref="B93:K93"/>
+    <mergeCell ref="A112:K112"/>
+    <mergeCell ref="B113:K113"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="A32:K32"/>
+    <mergeCell ref="B33:K33"/>
+    <mergeCell ref="A52:K52"/>
+    <mergeCell ref="B53:K53"/>
+    <mergeCell ref="A72:K72"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A53:A54"/>
     <mergeCell ref="A152:K152"/>
     <mergeCell ref="B153:K153"/>
     <mergeCell ref="A172:K172"/>
@@ -23221,21 +23348,6 @@
     <mergeCell ref="A133:A134"/>
     <mergeCell ref="A153:A154"/>
     <mergeCell ref="A173:A174"/>
-    <mergeCell ref="A32:K32"/>
-    <mergeCell ref="B33:K33"/>
-    <mergeCell ref="A52:K52"/>
-    <mergeCell ref="B53:K53"/>
-    <mergeCell ref="A72:K72"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B73:K73"/>
-    <mergeCell ref="A92:K92"/>
-    <mergeCell ref="B93:K93"/>
-    <mergeCell ref="A112:K112"/>
-    <mergeCell ref="B113:K113"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="A113:A114"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -23247,7 +23359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF10A5AF-6534-4D65-85BA-4292797F34F0}">
   <dimension ref="A1:P202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>

--- a/para/Tra/trafoDAB.xlsx
+++ b/para/Tra/trafoDAB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f215465b21b5e6e2/Studium/34_Github/PyPowerSim/para/Tra/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2018" documentId="11_AD4DB114E441178AC67DF439BED5CE16693EDF27" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53ECCED4-C566-4113-947B-29527C752828}"/>
+  <xr:revisionPtr revIDLastSave="2026" documentId="11_AD4DB114E441178AC67DF439BED5CE16693EDF27" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5113B7A-316F-4EA3-A78A-EEC6D273CEA1}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
@@ -3044,70 +3044,70 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>9.9999500001723973E-6</c:v>
+                  <c:v>9.9999166671249629E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9999800001335721E-5</c:v>
+                  <c:v>1.9999666670367233E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9998750020874283E-5</c:v>
+                  <c:v>4.9997916724509037E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.999500016666385E-5</c:v>
+                  <c:v>9.9991667129595285E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9998000133325533E-4</c:v>
+                  <c:v>1.9996667037005533E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.99875020830709E-4</c:v>
+                  <c:v>4.9979172452501157E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.9950016662497809E-4</c:v>
+                  <c:v>9.9916712943677317E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.998001332666921E-3</c:v>
+                  <c:v>1.9966703672860352E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.9875208073176802E-3</c:v>
+                  <c:v>4.9792244166744215E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.9501662508318933E-3</c:v>
+                  <c:v>9.9171277070295039E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.9801326693244747E-2</c:v>
+                  <c:v>1.9670339710796458E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.8770575499285984E-2</c:v>
+                  <c:v>4.7973351222406022E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.5162581964040482E-2</c:v>
+                  <c:v>9.2110965065631517E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.18126924692201818</c:v>
+                  <c:v>0.17008121365572643</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.39346934028736658</c:v>
+                  <c:v>0.33924107489575306</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.63212055882855767</c:v>
+                  <c:v>0.48667463829746294</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.8646647167633873</c:v>
+                  <c:v>0.57859560399164855</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.99326205300091452</c:v>
+                  <c:v>0.59985577831414827</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.99995460007023751</c:v>
+                  <c:v>0.59999996533350886</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.99999999793884642</c:v>
+                  <c:v>0.59999999999999798</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13260,70 +13260,70 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>9.9999000006678607E-5</c:v>
+                  <c:v>9.9997500041748566E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9999600005315976E-4</c:v>
+                  <c:v>1.999900003333277E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9997500083331925E-4</c:v>
+                  <c:v>4.9993750520793689E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.9990000666627665E-4</c:v>
+                  <c:v>9.9975004166141801E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9996000533278879E-3</c:v>
+                  <c:v>1.9990003332499562E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.9975008331248905E-3</c:v>
+                  <c:v>4.9937552050798306E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.9900066633346052E-3</c:v>
+                  <c:v>9.9750416146353604E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.9960053280042578E-2</c:v>
+                  <c:v>1.9900332501663787E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.9750831254159467E-2</c:v>
+                  <c:v>4.938017594333477E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.9006633466223737E-2</c:v>
+                  <c:v>9.7541150998571968E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.19605280423838412</c:v>
+                  <c:v>0.19032516392808096</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.47581290982020241</c:v>
+                  <c:v>0.44239843385719024</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.9063462346100909</c:v>
+                  <c:v>0.78693868057473315</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.6483997698218034</c:v>
+                  <c:v>1.2642411176571153</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.1606027941427883</c:v>
+                  <c:v>1.8358300027522023</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.3233235838169364</c:v>
+                  <c:v>1.986524106001829</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.9084218055563289</c:v>
+                  <c:v>1.999909200140475</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.9997730003511878</c:v>
+                  <c:v>1.9999999999722242</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.9999999896942322</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20463,7 +20463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DCB0370-656A-4BCA-B950-AA707D31C9FC}">
   <dimension ref="A1:AA184"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
@@ -23359,8 +23359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF10A5AF-6534-4D65-85BA-4292797F34F0}">
   <dimension ref="A1:P202"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23433,10 +23433,10 @@
         <v>162</v>
       </c>
       <c r="E2" s="65">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F2" s="55">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G2" s="34"/>
       <c r="H2" s="34"/>
@@ -23625,10 +23625,10 @@
         <v>27</v>
       </c>
       <c r="E8" s="66">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="F8" s="56">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="G8" s="33"/>
       <c r="H8" s="42"/>
@@ -23992,11 +23992,11 @@
       </c>
       <c r="E100" s="7">
         <f>IFERROR(E$2*(1-EXP(-$D100/(E$2*E$3))),"")</f>
-        <v>9.9999000006678607E-5</v>
+        <v>9.9997500041748566E-5</v>
       </c>
       <c r="F100" s="7">
         <f t="shared" ref="F100:O100" si="0">IFERROR(F$2*(1-EXP(-$D100/(F$2*F$3))),"")</f>
-        <v>9.9999000006678607E-5</v>
+        <v>9.9997500041748566E-5</v>
       </c>
       <c r="G100" s="7" t="str">
         <f t="shared" si="0"/>
@@ -24036,7 +24036,7 @@
       </c>
       <c r="P100" s="7">
         <f>SUM(F100:O100)</f>
-        <v>9.9999000006678607E-5</v>
+        <v>9.9997500041748566E-5</v>
       </c>
     </row>
     <row r="101" spans="4:16" x14ac:dyDescent="0.3">
@@ -24045,11 +24045,11 @@
       </c>
       <c r="E101" s="7">
         <f t="shared" ref="E101:O121" si="1">IFERROR(E$2*(1-EXP(-$D101/(E$2*E$3))),"")</f>
-        <v>1.9999600005315976E-4</v>
+        <v>1.999900003333277E-4</v>
       </c>
       <c r="F101" s="7">
         <f t="shared" si="1"/>
-        <v>1.9999600005315976E-4</v>
+        <v>1.999900003333277E-4</v>
       </c>
       <c r="G101" s="7" t="str">
         <f t="shared" si="1"/>
@@ -24089,7 +24089,7 @@
       </c>
       <c r="P101" s="7">
         <f t="shared" ref="P101:P121" si="2">SUM(F101:O101)</f>
-        <v>1.9999600005315976E-4</v>
+        <v>1.999900003333277E-4</v>
       </c>
     </row>
     <row r="102" spans="4:16" x14ac:dyDescent="0.3">
@@ -24098,11 +24098,11 @@
       </c>
       <c r="E102" s="7">
         <f t="shared" si="1"/>
-        <v>4.9997500083331925E-4</v>
+        <v>4.9993750520793689E-4</v>
       </c>
       <c r="F102" s="7">
         <f t="shared" si="1"/>
-        <v>4.9997500083331925E-4</v>
+        <v>4.9993750520793689E-4</v>
       </c>
       <c r="G102" s="7" t="str">
         <f t="shared" si="1"/>
@@ -24142,7 +24142,7 @@
       </c>
       <c r="P102" s="7">
         <f t="shared" si="2"/>
-        <v>4.9997500083331925E-4</v>
+        <v>4.9993750520793689E-4</v>
       </c>
     </row>
     <row r="103" spans="4:16" x14ac:dyDescent="0.3">
@@ -24151,11 +24151,11 @@
       </c>
       <c r="E103" s="7">
         <f t="shared" si="1"/>
-        <v>9.9990000666627665E-4</v>
+        <v>9.9975004166141801E-4</v>
       </c>
       <c r="F103" s="7">
         <f t="shared" si="1"/>
-        <v>9.9990000666627665E-4</v>
+        <v>9.9975004166141801E-4</v>
       </c>
       <c r="G103" s="7" t="str">
         <f t="shared" si="1"/>
@@ -24195,7 +24195,7 @@
       </c>
       <c r="P103" s="7">
         <f t="shared" si="2"/>
-        <v>9.9990000666627665E-4</v>
+        <v>9.9975004166141801E-4</v>
       </c>
     </row>
     <row r="104" spans="4:16" x14ac:dyDescent="0.3">
@@ -24204,11 +24204,11 @@
       </c>
       <c r="E104" s="7">
         <f t="shared" si="1"/>
-        <v>1.9996000533278879E-3</v>
+        <v>1.9990003332499562E-3</v>
       </c>
       <c r="F104" s="7">
         <f t="shared" si="1"/>
-        <v>1.9996000533278879E-3</v>
+        <v>1.9990003332499562E-3</v>
       </c>
       <c r="G104" s="7" t="str">
         <f t="shared" si="1"/>
@@ -24248,7 +24248,7 @@
       </c>
       <c r="P104" s="7">
         <f t="shared" si="2"/>
-        <v>1.9996000533278879E-3</v>
+        <v>1.9990003332499562E-3</v>
       </c>
     </row>
     <row r="105" spans="4:16" x14ac:dyDescent="0.3">
@@ -24257,11 +24257,11 @@
       </c>
       <c r="E105" s="7">
         <f t="shared" si="1"/>
-        <v>4.9975008331248905E-3</v>
+        <v>4.9937552050798306E-3</v>
       </c>
       <c r="F105" s="7">
         <f t="shared" si="1"/>
-        <v>4.9975008331248905E-3</v>
+        <v>4.9937552050798306E-3</v>
       </c>
       <c r="G105" s="7" t="str">
         <f t="shared" si="1"/>
@@ -24301,7 +24301,7 @@
       </c>
       <c r="P105" s="7">
         <f t="shared" si="2"/>
-        <v>4.9975008331248905E-3</v>
+        <v>4.9937552050798306E-3</v>
       </c>
     </row>
     <row r="106" spans="4:16" x14ac:dyDescent="0.3">
@@ -24310,11 +24310,11 @@
       </c>
       <c r="E106" s="7">
         <f t="shared" si="1"/>
-        <v>9.9900066633346052E-3</v>
+        <v>9.9750416146353604E-3</v>
       </c>
       <c r="F106" s="7">
         <f t="shared" si="1"/>
-        <v>9.9900066633346052E-3</v>
+        <v>9.9750416146353604E-3</v>
       </c>
       <c r="G106" s="7" t="str">
         <f t="shared" si="1"/>
@@ -24354,7 +24354,7 @@
       </c>
       <c r="P106" s="7">
         <f t="shared" si="2"/>
-        <v>9.9900066633346052E-3</v>
+        <v>9.9750416146353604E-3</v>
       </c>
     </row>
     <row r="107" spans="4:16" x14ac:dyDescent="0.3">
@@ -24363,11 +24363,11 @@
       </c>
       <c r="E107" s="7">
         <f t="shared" si="1"/>
-        <v>1.9960053280042578E-2</v>
+        <v>1.9900332501663787E-2</v>
       </c>
       <c r="F107" s="7">
         <f t="shared" si="1"/>
-        <v>1.9960053280042578E-2</v>
+        <v>1.9900332501663787E-2</v>
       </c>
       <c r="G107" s="7" t="str">
         <f t="shared" si="1"/>
@@ -24407,7 +24407,7 @@
       </c>
       <c r="P107" s="7">
         <f t="shared" si="2"/>
-        <v>1.9960053280042578E-2</v>
+        <v>1.9900332501663787E-2</v>
       </c>
     </row>
     <row r="108" spans="4:16" x14ac:dyDescent="0.3">
@@ -24416,11 +24416,11 @@
       </c>
       <c r="E108" s="7">
         <f t="shared" si="1"/>
-        <v>4.9750831254159467E-2</v>
+        <v>4.938017594333477E-2</v>
       </c>
       <c r="F108" s="7">
         <f t="shared" si="1"/>
-        <v>4.9750831254159467E-2</v>
+        <v>4.938017594333477E-2</v>
       </c>
       <c r="G108" s="7" t="str">
         <f t="shared" si="1"/>
@@ -24460,7 +24460,7 @@
       </c>
       <c r="P108" s="7">
         <f t="shared" si="2"/>
-        <v>4.9750831254159467E-2</v>
+        <v>4.938017594333477E-2</v>
       </c>
     </row>
     <row r="109" spans="4:16" x14ac:dyDescent="0.3">
@@ -24469,11 +24469,11 @@
       </c>
       <c r="E109" s="7">
         <f t="shared" si="1"/>
-        <v>9.9006633466223737E-2</v>
+        <v>9.7541150998571968E-2</v>
       </c>
       <c r="F109" s="7">
         <f t="shared" si="1"/>
-        <v>9.9006633466223737E-2</v>
+        <v>9.7541150998571968E-2</v>
       </c>
       <c r="G109" s="7" t="str">
         <f t="shared" si="1"/>
@@ -24513,7 +24513,7 @@
       </c>
       <c r="P109" s="7">
         <f t="shared" si="2"/>
-        <v>9.9006633466223737E-2</v>
+        <v>9.7541150998571968E-2</v>
       </c>
     </row>
     <row r="110" spans="4:16" x14ac:dyDescent="0.3">
@@ -24522,11 +24522,11 @@
       </c>
       <c r="E110" s="7">
         <f t="shared" si="1"/>
-        <v>0.19605280423838412</v>
+        <v>0.19032516392808096</v>
       </c>
       <c r="F110" s="7">
         <f t="shared" si="1"/>
-        <v>0.19605280423838412</v>
+        <v>0.19032516392808096</v>
       </c>
       <c r="G110" s="7" t="str">
         <f t="shared" si="1"/>
@@ -24566,7 +24566,7 @@
       </c>
       <c r="P110" s="7">
         <f t="shared" si="2"/>
-        <v>0.19605280423838412</v>
+        <v>0.19032516392808096</v>
       </c>
     </row>
     <row r="111" spans="4:16" x14ac:dyDescent="0.3">
@@ -24575,11 +24575,11 @@
       </c>
       <c r="E111" s="7">
         <f t="shared" si="1"/>
-        <v>0.47581290982020241</v>
+        <v>0.44239843385719024</v>
       </c>
       <c r="F111" s="7">
         <f t="shared" si="1"/>
-        <v>0.47581290982020241</v>
+        <v>0.44239843385719024</v>
       </c>
       <c r="G111" s="7" t="str">
         <f t="shared" si="1"/>
@@ -24619,7 +24619,7 @@
       </c>
       <c r="P111" s="7">
         <f t="shared" si="2"/>
-        <v>0.47581290982020241</v>
+        <v>0.44239843385719024</v>
       </c>
     </row>
     <row r="112" spans="4:16" x14ac:dyDescent="0.3">
@@ -24628,11 +24628,11 @@
       </c>
       <c r="E112" s="7">
         <f t="shared" si="1"/>
-        <v>0.9063462346100909</v>
+        <v>0.78693868057473315</v>
       </c>
       <c r="F112" s="7">
         <f t="shared" si="1"/>
-        <v>0.9063462346100909</v>
+        <v>0.78693868057473315</v>
       </c>
       <c r="G112" s="7" t="str">
         <f t="shared" si="1"/>
@@ -24672,7 +24672,7 @@
       </c>
       <c r="P112" s="7">
         <f t="shared" si="2"/>
-        <v>0.9063462346100909</v>
+        <v>0.78693868057473315</v>
       </c>
     </row>
     <row r="113" spans="4:16" x14ac:dyDescent="0.3">
@@ -24681,11 +24681,11 @@
       </c>
       <c r="E113" s="7">
         <f t="shared" si="1"/>
-        <v>1.6483997698218034</v>
+        <v>1.2642411176571153</v>
       </c>
       <c r="F113" s="7">
         <f t="shared" si="1"/>
-        <v>1.6483997698218034</v>
+        <v>1.2642411176571153</v>
       </c>
       <c r="G113" s="7" t="str">
         <f t="shared" si="1"/>
@@ -24725,7 +24725,7 @@
       </c>
       <c r="P113" s="7">
         <f t="shared" si="2"/>
-        <v>1.6483997698218034</v>
+        <v>1.2642411176571153</v>
       </c>
     </row>
     <row r="114" spans="4:16" x14ac:dyDescent="0.3">
@@ -24734,11 +24734,11 @@
       </c>
       <c r="E114" s="7">
         <f t="shared" si="1"/>
-        <v>3.1606027941427883</v>
+        <v>1.8358300027522023</v>
       </c>
       <c r="F114" s="7">
         <f t="shared" si="1"/>
-        <v>3.1606027941427883</v>
+        <v>1.8358300027522023</v>
       </c>
       <c r="G114" s="7" t="str">
         <f t="shared" si="1"/>
@@ -24778,7 +24778,7 @@
       </c>
       <c r="P114" s="7">
         <f t="shared" si="2"/>
-        <v>3.1606027941427883</v>
+        <v>1.8358300027522023</v>
       </c>
     </row>
     <row r="115" spans="4:16" x14ac:dyDescent="0.3">
@@ -24787,11 +24787,11 @@
       </c>
       <c r="E115" s="7">
         <f t="shared" si="1"/>
-        <v>4.3233235838169364</v>
+        <v>1.986524106001829</v>
       </c>
       <c r="F115" s="7">
         <f t="shared" si="1"/>
-        <v>4.3233235838169364</v>
+        <v>1.986524106001829</v>
       </c>
       <c r="G115" s="7" t="str">
         <f t="shared" si="1"/>
@@ -24831,7 +24831,7 @@
       </c>
       <c r="P115" s="7">
         <f t="shared" si="2"/>
-        <v>4.3233235838169364</v>
+        <v>1.986524106001829</v>
       </c>
     </row>
     <row r="116" spans="4:16" x14ac:dyDescent="0.3">
@@ -24840,11 +24840,11 @@
       </c>
       <c r="E116" s="7">
         <f t="shared" si="1"/>
-        <v>4.9084218055563289</v>
+        <v>1.999909200140475</v>
       </c>
       <c r="F116" s="7">
         <f t="shared" si="1"/>
-        <v>4.9084218055563289</v>
+        <v>1.999909200140475</v>
       </c>
       <c r="G116" s="7" t="str">
         <f t="shared" si="1"/>
@@ -24884,7 +24884,7 @@
       </c>
       <c r="P116" s="7">
         <f t="shared" si="2"/>
-        <v>4.9084218055563289</v>
+        <v>1.999909200140475</v>
       </c>
     </row>
     <row r="117" spans="4:16" x14ac:dyDescent="0.3">
@@ -24893,11 +24893,11 @@
       </c>
       <c r="E117" s="7">
         <f t="shared" si="1"/>
-        <v>4.9997730003511878</v>
+        <v>1.9999999999722242</v>
       </c>
       <c r="F117" s="7">
         <f t="shared" si="1"/>
-        <v>4.9997730003511878</v>
+        <v>1.9999999999722242</v>
       </c>
       <c r="G117" s="7" t="str">
         <f t="shared" si="1"/>
@@ -24937,7 +24937,7 @@
       </c>
       <c r="P117" s="7">
         <f t="shared" si="2"/>
-        <v>4.9997730003511878</v>
+        <v>1.9999999999722242</v>
       </c>
     </row>
     <row r="118" spans="4:16" x14ac:dyDescent="0.3">
@@ -24946,11 +24946,11 @@
       </c>
       <c r="E118" s="7">
         <f t="shared" si="1"/>
-        <v>4.9999999896942322</v>
+        <v>2</v>
       </c>
       <c r="F118" s="7">
         <f t="shared" si="1"/>
-        <v>4.9999999896942322</v>
+        <v>2</v>
       </c>
       <c r="G118" s="7" t="str">
         <f t="shared" si="1"/>
@@ -24990,7 +24990,7 @@
       </c>
       <c r="P118" s="7">
         <f t="shared" si="2"/>
-        <v>4.9999999896942322</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="4:16" x14ac:dyDescent="0.3">
@@ -24999,11 +24999,11 @@
       </c>
       <c r="E119" s="7">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F119" s="7">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G119" s="7" t="str">
         <f t="shared" si="1"/>
@@ -25043,7 +25043,7 @@
       </c>
       <c r="P119" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="4:16" x14ac:dyDescent="0.3">
@@ -25052,11 +25052,11 @@
       </c>
       <c r="E120" s="7">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F120" s="7">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G120" s="7" t="str">
         <f t="shared" si="1"/>
@@ -25096,7 +25096,7 @@
       </c>
       <c r="P120" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="4:16" x14ac:dyDescent="0.3">
@@ -25105,11 +25105,11 @@
       </c>
       <c r="E121" s="7">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F121" s="7">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G121" s="7" t="str">
         <f t="shared" si="1"/>
@@ -25149,7 +25149,7 @@
       </c>
       <c r="P121" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="4:16" x14ac:dyDescent="0.3">
@@ -27613,11 +27613,11 @@
       </c>
       <c r="E181" s="7">
         <f>IFERROR(E$8*(1-EXP(-$D181/(E$8*E$9))),"")</f>
-        <v>9.9999500001723973E-6</v>
+        <v>9.9999166671249629E-6</v>
       </c>
       <c r="F181" s="7">
         <f t="shared" ref="F181:O196" si="9">IFERROR(F$8*(1-EXP(-$D181/(F$8*F$9))),"")</f>
-        <v>9.9999500001723973E-6</v>
+        <v>9.9999166671249629E-6</v>
       </c>
       <c r="G181" s="7" t="str">
         <f t="shared" si="9"/>
@@ -27657,7 +27657,7 @@
       </c>
       <c r="P181" s="7">
         <f>SUM(F181:O181)</f>
-        <v>9.9999500001723973E-6</v>
+        <v>9.9999166671249629E-6</v>
       </c>
     </row>
     <row r="182" spans="4:16" x14ac:dyDescent="0.3">
@@ -27666,11 +27666,11 @@
       </c>
       <c r="E182" s="7">
         <f t="shared" ref="E182:O202" si="10">IFERROR(E$8*(1-EXP(-$D182/(E$8*E$9))),"")</f>
-        <v>1.9999800001335721E-5</v>
+        <v>1.9999666670367233E-5</v>
       </c>
       <c r="F182" s="7">
         <f t="shared" si="9"/>
-        <v>1.9999800001335721E-5</v>
+        <v>1.9999666670367233E-5</v>
       </c>
       <c r="G182" s="7" t="str">
         <f t="shared" si="9"/>
@@ -27710,7 +27710,7 @@
       </c>
       <c r="P182" s="7">
         <f t="shared" ref="P182:P201" si="11">SUM(F182:O182)</f>
-        <v>1.9999800001335721E-5</v>
+        <v>1.9999666670367233E-5</v>
       </c>
     </row>
     <row r="183" spans="4:16" x14ac:dyDescent="0.3">
@@ -27719,11 +27719,11 @@
       </c>
       <c r="E183" s="7">
         <f t="shared" si="10"/>
-        <v>4.9998750020874283E-5</v>
+        <v>4.9997916724509037E-5</v>
       </c>
       <c r="F183" s="7">
         <f t="shared" si="9"/>
-        <v>4.9998750020874283E-5</v>
+        <v>4.9997916724509037E-5</v>
       </c>
       <c r="G183" s="7" t="str">
         <f t="shared" si="9"/>
@@ -27763,7 +27763,7 @@
       </c>
       <c r="P183" s="7">
         <f t="shared" si="11"/>
-        <v>4.9998750020874283E-5</v>
+        <v>4.9997916724509037E-5</v>
       </c>
     </row>
     <row r="184" spans="4:16" x14ac:dyDescent="0.3">
@@ -27772,11 +27772,11 @@
       </c>
       <c r="E184" s="7">
         <f t="shared" si="10"/>
-        <v>9.999500016666385E-5</v>
+        <v>9.9991667129595285E-5</v>
       </c>
       <c r="F184" s="7">
         <f t="shared" si="9"/>
-        <v>9.999500016666385E-5</v>
+        <v>9.9991667129595285E-5</v>
       </c>
       <c r="G184" s="7" t="str">
         <f t="shared" si="9"/>
@@ -27816,7 +27816,7 @@
       </c>
       <c r="P184" s="7">
         <f t="shared" si="11"/>
-        <v>9.999500016666385E-5</v>
+        <v>9.9991667129595285E-5</v>
       </c>
     </row>
     <row r="185" spans="4:16" x14ac:dyDescent="0.3">
@@ -27825,11 +27825,11 @@
       </c>
       <c r="E185" s="7">
         <f t="shared" si="10"/>
-        <v>1.9998000133325533E-4</v>
+        <v>1.9996667037005533E-4</v>
       </c>
       <c r="F185" s="7">
         <f t="shared" si="9"/>
-        <v>1.9998000133325533E-4</v>
+        <v>1.9996667037005533E-4</v>
       </c>
       <c r="G185" s="7" t="str">
         <f t="shared" si="9"/>
@@ -27869,7 +27869,7 @@
       </c>
       <c r="P185" s="7">
         <f t="shared" si="11"/>
-        <v>1.9998000133325533E-4</v>
+        <v>1.9996667037005533E-4</v>
       </c>
     </row>
     <row r="186" spans="4:16" x14ac:dyDescent="0.3">
@@ -27878,11 +27878,11 @@
       </c>
       <c r="E186" s="7">
         <f t="shared" si="10"/>
-        <v>4.99875020830709E-4</v>
+        <v>4.9979172452501157E-4</v>
       </c>
       <c r="F186" s="7">
         <f t="shared" si="9"/>
-        <v>4.99875020830709E-4</v>
+        <v>4.9979172452501157E-4</v>
       </c>
       <c r="G186" s="7" t="str">
         <f t="shared" si="9"/>
@@ -27922,7 +27922,7 @@
       </c>
       <c r="P186" s="7">
         <f t="shared" si="11"/>
-        <v>4.99875020830709E-4</v>
+        <v>4.9979172452501157E-4</v>
       </c>
     </row>
     <row r="187" spans="4:16" x14ac:dyDescent="0.3">
@@ -27931,11 +27931,11 @@
       </c>
       <c r="E187" s="7">
         <f t="shared" si="10"/>
-        <v>9.9950016662497809E-4</v>
+        <v>9.9916712943677317E-4</v>
       </c>
       <c r="F187" s="7">
         <f t="shared" si="9"/>
-        <v>9.9950016662497809E-4</v>
+        <v>9.9916712943677317E-4</v>
       </c>
       <c r="G187" s="7" t="str">
         <f t="shared" si="9"/>
@@ -27975,7 +27975,7 @@
       </c>
       <c r="P187" s="7">
         <f t="shared" si="11"/>
-        <v>9.9950016662497809E-4</v>
+        <v>9.9916712943677317E-4</v>
       </c>
     </row>
     <row r="188" spans="4:16" x14ac:dyDescent="0.3">
@@ -27984,11 +27984,11 @@
       </c>
       <c r="E188" s="7">
         <f t="shared" si="10"/>
-        <v>1.998001332666921E-3</v>
+        <v>1.9966703672860352E-3</v>
       </c>
       <c r="F188" s="7">
         <f t="shared" si="9"/>
-        <v>1.998001332666921E-3</v>
+        <v>1.9966703672860352E-3</v>
       </c>
       <c r="G188" s="7" t="str">
         <f t="shared" si="9"/>
@@ -28028,7 +28028,7 @@
       </c>
       <c r="P188" s="7">
         <f t="shared" si="11"/>
-        <v>1.998001332666921E-3</v>
+        <v>1.9966703672860352E-3</v>
       </c>
     </row>
     <row r="189" spans="4:16" x14ac:dyDescent="0.3">
@@ -28037,11 +28037,11 @@
       </c>
       <c r="E189" s="7">
         <f t="shared" si="10"/>
-        <v>4.9875208073176802E-3</v>
+        <v>4.9792244166744215E-3</v>
       </c>
       <c r="F189" s="7">
         <f t="shared" si="9"/>
-        <v>4.9875208073176802E-3</v>
+        <v>4.9792244166744215E-3</v>
       </c>
       <c r="G189" s="7" t="str">
         <f t="shared" si="9"/>
@@ -28081,7 +28081,7 @@
       </c>
       <c r="P189" s="7">
         <f t="shared" si="11"/>
-        <v>4.9875208073176802E-3</v>
+        <v>4.9792244166744215E-3</v>
       </c>
     </row>
     <row r="190" spans="4:16" x14ac:dyDescent="0.3">
@@ -28090,11 +28090,11 @@
       </c>
       <c r="E190" s="7">
         <f t="shared" si="10"/>
-        <v>9.9501662508318933E-3</v>
+        <v>9.9171277070295039E-3</v>
       </c>
       <c r="F190" s="7">
         <f t="shared" si="9"/>
-        <v>9.9501662508318933E-3</v>
+        <v>9.9171277070295039E-3</v>
       </c>
       <c r="G190" s="7" t="str">
         <f t="shared" si="9"/>
@@ -28134,7 +28134,7 @@
       </c>
       <c r="P190" s="7">
         <f t="shared" si="11"/>
-        <v>9.9501662508318933E-3</v>
+        <v>9.9171277070295039E-3</v>
       </c>
     </row>
     <row r="191" spans="4:16" x14ac:dyDescent="0.3">
@@ -28143,11 +28143,11 @@
       </c>
       <c r="E191" s="7">
         <f t="shared" si="10"/>
-        <v>1.9801326693244747E-2</v>
+        <v>1.9670339710796458E-2</v>
       </c>
       <c r="F191" s="7">
         <f t="shared" si="9"/>
-        <v>1.9801326693244747E-2</v>
+        <v>1.9670339710796458E-2</v>
       </c>
       <c r="G191" s="7" t="str">
         <f t="shared" si="9"/>
@@ -28187,7 +28187,7 @@
       </c>
       <c r="P191" s="7">
         <f t="shared" si="11"/>
-        <v>1.9801326693244747E-2</v>
+        <v>1.9670339710796458E-2</v>
       </c>
     </row>
     <row r="192" spans="4:16" x14ac:dyDescent="0.3">
@@ -28196,11 +28196,11 @@
       </c>
       <c r="E192" s="7">
         <f t="shared" si="10"/>
-        <v>4.8770575499285984E-2</v>
+        <v>4.7973351222406022E-2</v>
       </c>
       <c r="F192" s="7">
         <f t="shared" si="9"/>
-        <v>4.8770575499285984E-2</v>
+        <v>4.7973351222406022E-2</v>
       </c>
       <c r="G192" s="7" t="str">
         <f t="shared" si="9"/>
@@ -28240,7 +28240,7 @@
       </c>
       <c r="P192" s="7">
         <f t="shared" si="11"/>
-        <v>4.8770575499285984E-2</v>
+        <v>4.7973351222406022E-2</v>
       </c>
     </row>
     <row r="193" spans="4:16" x14ac:dyDescent="0.3">
@@ -28249,11 +28249,11 @@
       </c>
       <c r="E193" s="7">
         <f t="shared" si="10"/>
-        <v>9.5162581964040482E-2</v>
+        <v>9.2110965065631517E-2</v>
       </c>
       <c r="F193" s="7">
         <f t="shared" si="9"/>
-        <v>9.5162581964040482E-2</v>
+        <v>9.2110965065631517E-2</v>
       </c>
       <c r="G193" s="7" t="str">
         <f t="shared" si="9"/>
@@ -28293,7 +28293,7 @@
       </c>
       <c r="P193" s="7">
         <f t="shared" si="11"/>
-        <v>9.5162581964040482E-2</v>
+        <v>9.2110965065631517E-2</v>
       </c>
     </row>
     <row r="194" spans="4:16" x14ac:dyDescent="0.3">
@@ -28302,11 +28302,11 @@
       </c>
       <c r="E194" s="7">
         <f t="shared" si="10"/>
-        <v>0.18126924692201818</v>
+        <v>0.17008121365572643</v>
       </c>
       <c r="F194" s="7">
         <f t="shared" si="9"/>
-        <v>0.18126924692201818</v>
+        <v>0.17008121365572643</v>
       </c>
       <c r="G194" s="7" t="str">
         <f t="shared" si="9"/>
@@ -28346,7 +28346,7 @@
       </c>
       <c r="P194" s="7">
         <f t="shared" si="11"/>
-        <v>0.18126924692201818</v>
+        <v>0.17008121365572643</v>
       </c>
     </row>
     <row r="195" spans="4:16" x14ac:dyDescent="0.3">
@@ -28355,11 +28355,11 @@
       </c>
       <c r="E195" s="7">
         <f t="shared" si="10"/>
-        <v>0.39346934028736658</v>
+        <v>0.33924107489575306</v>
       </c>
       <c r="F195" s="7">
         <f t="shared" si="9"/>
-        <v>0.39346934028736658</v>
+        <v>0.33924107489575306</v>
       </c>
       <c r="G195" s="7" t="str">
         <f t="shared" si="9"/>
@@ -28399,7 +28399,7 @@
       </c>
       <c r="P195" s="7">
         <f t="shared" si="11"/>
-        <v>0.39346934028736658</v>
+        <v>0.33924107489575306</v>
       </c>
     </row>
     <row r="196" spans="4:16" x14ac:dyDescent="0.3">
@@ -28408,11 +28408,11 @@
       </c>
       <c r="E196" s="7">
         <f t="shared" si="10"/>
-        <v>0.63212055882855767</v>
+        <v>0.48667463829746294</v>
       </c>
       <c r="F196" s="7">
         <f t="shared" si="9"/>
-        <v>0.63212055882855767</v>
+        <v>0.48667463829746294</v>
       </c>
       <c r="G196" s="7" t="str">
         <f t="shared" si="9"/>
@@ -28452,7 +28452,7 @@
       </c>
       <c r="P196" s="7">
         <f t="shared" si="11"/>
-        <v>0.63212055882855767</v>
+        <v>0.48667463829746294</v>
       </c>
     </row>
     <row r="197" spans="4:16" x14ac:dyDescent="0.3">
@@ -28461,11 +28461,11 @@
       </c>
       <c r="E197" s="7">
         <f t="shared" si="10"/>
-        <v>0.8646647167633873</v>
+        <v>0.57859560399164855</v>
       </c>
       <c r="F197" s="7">
         <f t="shared" si="10"/>
-        <v>0.8646647167633873</v>
+        <v>0.57859560399164855</v>
       </c>
       <c r="G197" s="7" t="str">
         <f t="shared" si="10"/>
@@ -28505,7 +28505,7 @@
       </c>
       <c r="P197" s="7">
         <f t="shared" si="11"/>
-        <v>0.8646647167633873</v>
+        <v>0.57859560399164855</v>
       </c>
     </row>
     <row r="198" spans="4:16" x14ac:dyDescent="0.3">
@@ -28514,11 +28514,11 @@
       </c>
       <c r="E198" s="7">
         <f t="shared" si="10"/>
-        <v>0.99326205300091452</v>
+        <v>0.59985577831414827</v>
       </c>
       <c r="F198" s="7">
         <f t="shared" si="10"/>
-        <v>0.99326205300091452</v>
+        <v>0.59985577831414827</v>
       </c>
       <c r="G198" s="7" t="str">
         <f t="shared" si="10"/>
@@ -28558,7 +28558,7 @@
       </c>
       <c r="P198" s="7">
         <f t="shared" si="11"/>
-        <v>0.99326205300091452</v>
+        <v>0.59985577831414827</v>
       </c>
     </row>
     <row r="199" spans="4:16" x14ac:dyDescent="0.3">
@@ -28567,11 +28567,11 @@
       </c>
       <c r="E199" s="7">
         <f t="shared" si="10"/>
-        <v>0.99995460007023751</v>
+        <v>0.59999996533350886</v>
       </c>
       <c r="F199" s="7">
         <f t="shared" si="10"/>
-        <v>0.99995460007023751</v>
+        <v>0.59999996533350886</v>
       </c>
       <c r="G199" s="7" t="str">
         <f t="shared" si="10"/>
@@ -28611,7 +28611,7 @@
       </c>
       <c r="P199" s="7">
         <f t="shared" si="11"/>
-        <v>0.99995460007023751</v>
+        <v>0.59999996533350886</v>
       </c>
     </row>
     <row r="200" spans="4:16" x14ac:dyDescent="0.3">
@@ -28620,11 +28620,11 @@
       </c>
       <c r="E200" s="7">
         <f t="shared" si="10"/>
-        <v>0.99999999793884642</v>
+        <v>0.59999999999999798</v>
       </c>
       <c r="F200" s="7">
         <f t="shared" si="10"/>
-        <v>0.99999999793884642</v>
+        <v>0.59999999999999798</v>
       </c>
       <c r="G200" s="7" t="str">
         <f t="shared" si="10"/>
@@ -28664,7 +28664,7 @@
       </c>
       <c r="P200" s="7">
         <f t="shared" si="11"/>
-        <v>0.99999999793884642</v>
+        <v>0.59999999999999798</v>
       </c>
     </row>
     <row r="201" spans="4:16" x14ac:dyDescent="0.3">
@@ -28673,11 +28673,11 @@
       </c>
       <c r="E201" s="7">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="F201" s="7">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="G201" s="7" t="str">
         <f t="shared" si="10"/>
@@ -28717,7 +28717,7 @@
       </c>
       <c r="P201" s="7">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="202" spans="4:16" x14ac:dyDescent="0.3">
@@ -28726,11 +28726,11 @@
       </c>
       <c r="E202" s="7">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="F202" s="7">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="G202" s="7" t="str">
         <f t="shared" si="10"/>
@@ -28770,7 +28770,7 @@
       </c>
       <c r="P202" s="7">
         <f>SUM(F202:O202)</f>
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
